--- a/reports/Rapport.xlsx
+++ b/reports/Rapport.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\W\DST\mar24_cds_eeg\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\W\DataScientest\mar24_cds_eeg\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA24585-83F9-4EA4-9EDA-40710DFBA77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63B851A0-AA68-4C09-9073-5D3032FDA66B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="Test_Score_Train">Feuil1!$G$3:$G$5,Feuil1!$G$9:$G$11,Feuil1!$G$15:$G$17,Feuil1!$G$21:$G$23,Feuil1!$G$27:$G$29</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,10 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="43">
-  <si>
-    <t>Run 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="44">
   <si>
     <t>Train</t>
   </si>
@@ -182,26 +181,32 @@
     <t>A_Pos</t>
   </si>
   <si>
-    <t>Test (S)</t>
+    <t>Global</t>
   </si>
   <si>
-    <t>Acc (A)</t>
+    <t>Run_3</t>
   </si>
   <si>
-    <t>Train (R)</t>
+    <t>Test_S</t>
   </si>
   <si>
-    <t>Global</t>
+    <t>Train_R</t>
+  </si>
+  <si>
+    <t>Acc_A</t>
+  </si>
+  <si>
+    <t>max_test_score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +297,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -691,43 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1008,26 +982,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,9 +1043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1091,9 +1093,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1118,7 +1117,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1132,7 +1131,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1153,9 +1152,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1171,28 +1167,28 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1207,20 +1203,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1251,16 +1247,25 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1273,13 +1278,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1287,13 +1292,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,25 +1307,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1329,18 +1337,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1380,6 +1376,33 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1389,13 +1412,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,6 +1492,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1488,7 +1528,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1527,6 +1567,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1567,7 +1608,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$AE$2</c:f>
+              <c:f>Feuil1!$AN$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1603,7 +1644,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$AE$3:$AE$7</c:f>
+              <c:f>Feuil1!$AN$3:$AN$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1626,7 +1667,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-9C01-438D-880D-D9D0F95671B5}"/>
             </c:ext>
@@ -1637,7 +1678,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$AH$2</c:f>
+              <c:f>Feuil1!$AQ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1673,7 +1714,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$AH$3:$AH$7</c:f>
+              <c:f>Feuil1!$AQ$3:$AQ$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1696,7 +1737,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-9C01-438D-880D-D9D0F95671B5}"/>
             </c:ext>
@@ -1707,7 +1748,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$AK$2</c:f>
+              <c:f>Feuil1!$AT$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1743,7 +1784,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$AK$3:$AK$7</c:f>
+              <c:f>Feuil1!$AT$3:$AT$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1766,7 +1807,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-9C01-438D-880D-D9D0F95671B5}"/>
             </c:ext>
@@ -1782,11 +1823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1099384672"/>
-        <c:axId val="1038250320"/>
+        <c:axId val="115087696"/>
+        <c:axId val="68359840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1099384672"/>
+        <c:axId val="115087696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +1883,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1038250320"/>
+        <c:crossAx val="68359840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1850,7 +1891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1038250320"/>
+        <c:axId val="68359840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +1934,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1099384672"/>
+        <c:crossAx val="115087696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1945,14 +1986,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1988,7 +2029,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -2027,6 +2068,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2067,7 +2109,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$AE$2</c:f>
+              <c:f>Feuil1!$AN$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2103,7 +2145,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$AE$8:$AE$12</c:f>
+              <c:f>Feuil1!$AN$8:$AN$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2126,7 +2168,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8764-4C78-A7F5-6F0E0F3F0366}"/>
             </c:ext>
@@ -2137,7 +2179,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$AH$2</c:f>
+              <c:f>Feuil1!$AQ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2173,7 +2215,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$AH$8:$AH$12</c:f>
+              <c:f>Feuil1!$AQ$8:$AQ$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2196,7 +2238,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8764-4C78-A7F5-6F0E0F3F0366}"/>
             </c:ext>
@@ -2207,7 +2249,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$AK$2</c:f>
+              <c:f>Feuil1!$AT$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2243,7 +2285,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$AK$8:$AK$12</c:f>
+              <c:f>Feuil1!$AT$8:$AT$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2266,7 +2308,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8764-4C78-A7F5-6F0E0F3F0366}"/>
             </c:ext>
@@ -2282,11 +2324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1099384672"/>
-        <c:axId val="1038250320"/>
+        <c:axId val="335122016"/>
+        <c:axId val="335130600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1099384672"/>
+        <c:axId val="335122016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2342,7 +2384,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1038250320"/>
+        <c:crossAx val="335130600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2350,7 +2392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1038250320"/>
+        <c:axId val="335130600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2393,7 +2435,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1099384672"/>
+        <c:crossAx val="335122016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2445,14 +2487,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3613,13 +3655,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>403274</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3629,7 +3671,7 @@
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377CA7F0-5917-D700-4DF3-F023FFC7A593}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377CA7F0-5917-D700-4DF3-F023FFC7A593}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3649,15 +3691,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>403274</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3665,7 +3707,7 @@
         <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279635FE-3390-E526-9012-D91AC81C800B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279635FE-3390-E526-9012-D91AC81C800B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4002,3022 +4044,3502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12632AE-CFC0-4155-A98A-9CC7868863C9}">
-  <dimension ref="A1:AL41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="AN3" sqref="AN3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="10"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="10"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="10"/>
-    <col min="11" max="11" width="2.7109375" style="10" customWidth="1"/>
-    <col min="12" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" style="10" customWidth="1"/>
-    <col min="16" max="18" width="4.7109375" customWidth="1"/>
-    <col min="19" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="3.7109375" customWidth="1"/>
-    <col min="24" max="24" width="2.7109375" customWidth="1"/>
-    <col min="25" max="27" width="6.7109375" customWidth="1"/>
-    <col min="28" max="28" width="2.7109375" customWidth="1"/>
-    <col min="29" max="29" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="38" width="6.7109375" customWidth="1"/>
-    <col min="39" max="42" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="8"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="8"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="8"/>
+    <col min="11" max="11" width="2.75" style="8" customWidth="1"/>
+    <col min="12" max="14" width="5.75" customWidth="1"/>
+    <col min="15" max="15" width="2.75" style="8" customWidth="1"/>
+    <col min="16" max="18" width="6" customWidth="1"/>
+    <col min="19" max="20" width="2.75" customWidth="1"/>
+    <col min="21" max="23" width="3.75" customWidth="1"/>
+    <col min="24" max="24" width="2.75" customWidth="1"/>
+    <col min="25" max="36" width="6.75" customWidth="1"/>
+    <col min="37" max="37" width="2.75" customWidth="1"/>
+    <col min="38" max="38" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="47" width="6.75" customWidth="1"/>
+    <col min="48" max="51" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" ht="15" thickBot="1"/>
+    <row r="2" spans="1:47" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="153" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="152" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="97"/>
-      <c r="U2" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="81" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="92"/>
+      <c r="U2" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="82" t="s">
+      <c r="V2" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="83" t="s">
+      <c r="W2" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="36" t="s">
+      <c r="AA2" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="185"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="185"/>
+      <c r="AJ2" s="185"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="37" t="s">
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL2" s="2"/>
+      <c r="AU2" s="2"/>
     </row>
-    <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="151" t="s">
+    <row r="3" spans="1:47" ht="15.75" customHeight="1">
+      <c r="A3" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="154" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="169" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>90.3</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="189">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H3" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="14">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="H3" s="138" t="s">
+      <c r="I3" s="11">
+        <v>72.2</v>
+      </c>
+      <c r="J3" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="14">
-        <v>72.2</v>
-      </c>
-      <c r="J3" s="143" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="149">
+      <c r="K3" s="9"/>
+      <c r="L3" s="144">
         <f xml:space="preserve"> E3 / E6</f>
         <v>0.97939262472885025</v>
       </c>
-      <c r="M3" s="149">
+      <c r="M3" s="144">
         <f xml:space="preserve"> G3 / G6</f>
         <v>1.0921875000000001</v>
       </c>
-      <c r="N3" s="149">
+      <c r="N3" s="144">
         <f xml:space="preserve"> I3 / I6</f>
         <v>1.1039755351681957</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="86">
-        <f t="shared" ref="P3:P32" si="0" xml:space="preserve"> _xlfn.RANK.EQ(E3,_xlfn.ANCHORARRAY( Y$3), 0)</f>
-        <v>8</v>
-      </c>
-      <c r="Q3" s="87">
-        <f t="shared" ref="Q3:Q32" si="1" xml:space="preserve"> _xlfn.RANK.EQ(G3,_xlfn.ANCHORARRAY( Z$3), 0)</f>
+      <c r="O3" s="9"/>
+      <c r="P3" s="81" t="e">
+        <f ca="1" xml:space="preserve"> _xlfn.RANK.EQ(E3, Y$3:Y$30, 0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q3" s="82" t="e">
+        <f ca="1" xml:space="preserve"> _xlfn.RANK.EQ(G3, Z$3:Z$30, 0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R3" s="83" t="e">
+        <f ca="1" xml:space="preserve"> _xlfn.RANK.EQ(I3, AA$3:AA$30, 0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T3" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="123">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E3, AM$3:AM$7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="V3" s="89">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G3, AN$3:AN$7, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="W3" s="90">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I3, AO$3:AO$7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Y3" s="44" t="e" cm="1">
+        <f t="array" aca="1" ref="Y3:Y30" ca="1" xml:space="preserve"> _xlfn.UNIQUE(E3:E32)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z3" s="34" t="e" cm="1">
+        <f t="array" aca="1" ref="Z3:Z26" ca="1" xml:space="preserve"> _xlfn.UNIQUE(G3:G32)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA3" s="45" t="e" cm="1">
+        <f t="array" aca="1" ref="AA3:AA30" ca="1" xml:space="preserve"> _xlfn.UNIQUE(I3:I32)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB3" s="186"/>
+      <c r="AC3" s="185"/>
+      <c r="AD3" s="185"/>
+      <c r="AE3" s="186"/>
+      <c r="AF3" s="186"/>
+      <c r="AG3" s="186"/>
+      <c r="AH3" s="186"/>
+      <c r="AI3" s="186"/>
+      <c r="AJ3" s="186"/>
+      <c r="AL3" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="55">
+        <v>90.3</v>
+      </c>
+      <c r="AN3" s="56">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="AO3" s="57">
+        <v>72.2</v>
+      </c>
+      <c r="AP3" s="55">
+        <v>88.4</v>
+      </c>
+      <c r="AQ3" s="56">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="AR3" s="57">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AS3" s="55">
+        <v>85.8</v>
+      </c>
+      <c r="AT3" s="56">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AU3" s="57">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="15.75" customHeight="1">
+      <c r="A4" s="156"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>88.4</v>
+      </c>
+      <c r="F4" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="190">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="H4" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="12">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="J4" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="144">
+        <f t="shared" ref="L4:L5" si="0" xml:space="preserve"> E4 / E7</f>
+        <v>0.88488488488488493</v>
+      </c>
+      <c r="M4" s="144">
+        <f t="shared" ref="M4:M5" si="1" xml:space="preserve"> G4 / G7</f>
+        <v>1.1082390953150241</v>
+      </c>
+      <c r="N4" s="144">
+        <f t="shared" ref="N4:N5" si="2" xml:space="preserve"> I4 / I7</f>
+        <v>1.1055999999999999</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="84" t="e">
+        <f t="shared" ref="P4:P32" ca="1" si="3" xml:space="preserve"> _xlfn.RANK.EQ(E4, Y$3:Y$30, 0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q4" s="85" t="e">
+        <f t="shared" ref="Q4:Q32" ca="1" si="4" xml:space="preserve"> _xlfn.RANK.EQ(G4, Z$3:Z$30, 0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R4" s="31" t="e">
+        <f t="shared" ref="R4:R32" ca="1" si="5" xml:space="preserve"> _xlfn.RANK.EQ(I4, AA$3:AA$30, 0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T4" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="124">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E4, AP$3:AP$7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="V4" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G4, AQ$3:AQ$7, 0)</f>
         <v>4</v>
       </c>
-      <c r="R3" s="88">
-        <f t="shared" ref="R3:R32" si="2" xml:space="preserve"> _xlfn.RANK.EQ(I3,_xlfn.ANCHORARRAY( AA$3), 0)</f>
-        <v>3</v>
-      </c>
-      <c r="T3" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="128">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E3, AD$3:AD$7, 0)</f>
+      <c r="W4" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I4, AR$3:AR$7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="Y4" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z4" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA4" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB4" s="186"/>
+      <c r="AC4" s="185"/>
+      <c r="AD4" s="185"/>
+      <c r="AF4" s="186"/>
+      <c r="AG4" s="186"/>
+      <c r="AH4" s="186"/>
+      <c r="AI4" s="186"/>
+      <c r="AJ4" s="186"/>
+      <c r="AL4" s="183"/>
+      <c r="AM4" s="58">
+        <v>94.4</v>
+      </c>
+      <c r="AN4" s="59">
+        <v>69.2</v>
+      </c>
+      <c r="AO4" s="60">
+        <v>71.3</v>
+      </c>
+      <c r="AP4" s="58">
+        <v>100</v>
+      </c>
+      <c r="AQ4" s="59">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AR4" s="60">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AS4" s="58">
+        <v>100</v>
+      </c>
+      <c r="AT4" s="59">
+        <v>62.6</v>
+      </c>
+      <c r="AU4" s="60">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="15.75" customHeight="1">
+      <c r="A5" s="156"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13">
+        <v>85.8</v>
+      </c>
+      <c r="F5" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="191">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="H5" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="13">
+        <v>68</v>
+      </c>
+      <c r="J5" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="144">
+        <f t="shared" si="0"/>
+        <v>0.88453608247422677</v>
+      </c>
+      <c r="M5" s="144">
+        <f t="shared" si="1"/>
+        <v>1.0941558441558443</v>
+      </c>
+      <c r="N5" s="144">
+        <f t="shared" si="2"/>
+        <v>1.0985460420032311</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="107" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q5" s="108" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R5" s="109" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T5" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="125">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E5, AS$3:AS$7, 0)</f>
         <v>2</v>
       </c>
-      <c r="V3" s="94">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G3, AE$3:AE$7, 0)</f>
+      <c r="V5" s="103">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G5, AT$3:AT$7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="W5" s="104">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I5, AU$3:AU$7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="Y5" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z5" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA5" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB5" s="186"/>
+      <c r="AC5" s="185"/>
+      <c r="AD5" s="185"/>
+      <c r="AF5" s="186"/>
+      <c r="AG5" s="186"/>
+      <c r="AH5" s="186"/>
+      <c r="AI5" s="186"/>
+      <c r="AJ5" s="186"/>
+      <c r="AL5" s="183"/>
+      <c r="AM5" s="58">
+        <v>74</v>
+      </c>
+      <c r="AN5" s="59">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="AO5" s="60">
+        <v>72.5</v>
+      </c>
+      <c r="AP5" s="58">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AQ5" s="59">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="AR5" s="60">
+        <v>72.5</v>
+      </c>
+      <c r="AS5" s="58">
+        <v>69.5</v>
+      </c>
+      <c r="AT5" s="59">
+        <v>71.5</v>
+      </c>
+      <c r="AU5" s="60">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="15.75" customHeight="1">
+      <c r="A6" s="156"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="95">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I3, AF$3:AF$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="Y3" s="48" cm="1">
-        <f t="array" ref="Y3:Y30" xml:space="preserve"> _xlfn.UNIQUE(E3:E32)</f>
-        <v>90.3</v>
-      </c>
-      <c r="Z3" s="38" cm="1">
-        <f t="array" ref="Z3:Z26" xml:space="preserve"> _xlfn.UNIQUE(G3:G32)</f>
-        <v>69.900000000000006</v>
-      </c>
-      <c r="AA3" s="49" cm="1">
-        <f t="array" ref="AA3:AA30" xml:space="preserve"> _xlfn.UNIQUE(I3:I32)</f>
-        <v>72.2</v>
-      </c>
-      <c r="AC3" s="178" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="59">
-        <v>90.3</v>
-      </c>
-      <c r="AE3" s="60">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="AF3" s="61">
-        <v>72.2</v>
-      </c>
-      <c r="AG3" s="59">
-        <v>88.4</v>
-      </c>
-      <c r="AH3" s="60">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="AI3" s="61">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="AJ3" s="59">
-        <v>85.8</v>
-      </c>
-      <c r="AK3" s="60">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="AL3" s="61">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="15">
-        <v>88.4</v>
-      </c>
-      <c r="F4" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="15">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="H4" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="15">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="J4" s="144" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="149">
-        <f t="shared" ref="L4:L5" si="3" xml:space="preserve"> E4 / E7</f>
-        <v>0.88488488488488493</v>
-      </c>
-      <c r="M4" s="149">
-        <f t="shared" ref="M4:M5" si="4" xml:space="preserve"> G4 / G7</f>
-        <v>1.1082390953150241</v>
-      </c>
-      <c r="N4" s="149">
-        <f t="shared" ref="N4:N5" si="5" xml:space="preserve"> I4 / I7</f>
-        <v>1.1055999999999999</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="89">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q4" s="90">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="R4" s="35">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="T4" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="129">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E4, AG$3:AG$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="V4" s="53">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G4, AH$3:AH$7, 0)</f>
+      <c r="D6" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="54">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I4, AI$3:AI$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="Y4" s="48">
-        <v>88.4</v>
-      </c>
-      <c r="Z4" s="38">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="AA4" s="49">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="AC4" s="179"/>
-      <c r="AD4" s="62">
-        <v>94.4</v>
-      </c>
-      <c r="AE4" s="63">
-        <v>69.2</v>
-      </c>
-      <c r="AF4" s="64">
-        <v>71.3</v>
-      </c>
-      <c r="AG4" s="62">
-        <v>100</v>
-      </c>
-      <c r="AH4" s="63">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="AI4" s="64">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="AJ4" s="62">
-        <v>100</v>
-      </c>
-      <c r="AK4" s="63">
-        <v>62.6</v>
-      </c>
-      <c r="AL4" s="64">
-        <v>62.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="152"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="120" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="16">
-        <v>85.8</v>
-      </c>
-      <c r="F5" s="140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="16">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="H5" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="16">
-        <v>68</v>
-      </c>
-      <c r="J5" s="145" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="149">
-        <f t="shared" si="3"/>
-        <v>0.88453608247422677</v>
-      </c>
-      <c r="M5" s="149">
-        <f t="shared" si="4"/>
-        <v>1.0941558441558443</v>
-      </c>
-      <c r="N5" s="149">
-        <f t="shared" si="5"/>
-        <v>1.0985460420032311</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="112">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q5" s="113">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="R5" s="114">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="T5" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" s="130">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E5, AJ$3:AJ$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="V5" s="108">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G5, AK$3:AK$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="W5" s="109">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I5, AL$3:AL$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="Y5" s="48">
-        <v>85.8</v>
-      </c>
-      <c r="Z5" s="38">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="AA5" s="49">
-        <v>68</v>
-      </c>
-      <c r="AC5" s="179"/>
-      <c r="AD5" s="62">
-        <v>74</v>
-      </c>
-      <c r="AE5" s="63">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="AF5" s="64">
-        <v>72.5</v>
-      </c>
-      <c r="AG5" s="62">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="AH5" s="63">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="AI5" s="64">
-        <v>72.5</v>
-      </c>
-      <c r="AJ5" s="62">
-        <v>69.5</v>
-      </c>
-      <c r="AK5" s="63">
-        <v>71.5</v>
-      </c>
-      <c r="AL5" s="64">
-        <v>72.099999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="152"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="172" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>92.2</v>
       </c>
-      <c r="F6" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="F6" s="136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="14">
         <v>64</v>
       </c>
-      <c r="H6" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="17">
+      <c r="H6" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14">
         <v>65.400000000000006</v>
       </c>
-      <c r="J6" s="146" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="150">
+      <c r="J6" s="141" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="145">
         <f xml:space="preserve"> AVERAGE(L3:L5)</f>
         <v>0.91627119736265394</v>
       </c>
-      <c r="M6" s="150">
+      <c r="M6" s="145">
         <f t="shared" ref="M6:N6" si="6" xml:space="preserve"> AVERAGE(M3:M5)</f>
         <v>1.0981941464902896</v>
       </c>
-      <c r="N6" s="150">
+      <c r="N6" s="145">
         <f t="shared" si="6"/>
         <v>1.1027071923904757</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="115">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q6" s="116">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="R6" s="117">
-        <f t="shared" si="2"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="110" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q6" s="111" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R6" s="112" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T6" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="129">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E6, AM$8:AM$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="V6" s="105">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G6, AN$8:AN$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="W6" s="106">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I6, AO$8:AO$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Y6" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z6" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA6" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB6" s="186"/>
+      <c r="AC6" s="185"/>
+      <c r="AD6" s="185"/>
+      <c r="AE6" s="186"/>
+      <c r="AF6" s="186"/>
+      <c r="AG6" s="186"/>
+      <c r="AH6" s="186"/>
+      <c r="AI6" s="186"/>
+      <c r="AJ6" s="186"/>
+      <c r="AL6" s="183"/>
+      <c r="AM6" s="58">
+        <v>79.5</v>
+      </c>
+      <c r="AN6" s="59">
+        <v>68.5</v>
+      </c>
+      <c r="AO6" s="60">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AP6" s="58">
+        <v>68.7</v>
+      </c>
+      <c r="AQ6" s="59">
+        <v>69.3</v>
+      </c>
+      <c r="AR6" s="60">
+        <v>72</v>
+      </c>
+      <c r="AS6" s="58">
+        <v>71.7</v>
+      </c>
+      <c r="AT6" s="59">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AU6" s="60">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="156"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>99.9</v>
+      </c>
+      <c r="F7" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="12">
+        <v>61.9</v>
+      </c>
+      <c r="H7" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12">
+        <v>62.5</v>
+      </c>
+      <c r="J7" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="84" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q7" s="85" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R7" s="31" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T7" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="64">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E7, AP$8:AP$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="V7" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G7, AQ$8:AQ$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="W7" s="52">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I7, AR$8:AR$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y7" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z7" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA7" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB7" s="186"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185"/>
+      <c r="AE7" s="186"/>
+      <c r="AF7" s="186"/>
+      <c r="AG7" s="186"/>
+      <c r="AH7" s="186"/>
+      <c r="AI7" s="186"/>
+      <c r="AJ7" s="186"/>
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="61">
+        <v>80.3</v>
+      </c>
+      <c r="AN7" s="62">
+        <v>68.5</v>
+      </c>
+      <c r="AO7" s="63">
+        <v>71</v>
+      </c>
+      <c r="AP7" s="61">
+        <v>69.8</v>
+      </c>
+      <c r="AQ7" s="62">
+        <v>69.3</v>
+      </c>
+      <c r="AR7" s="63">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AS7" s="61">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="AT7" s="62">
+        <v>71.3</v>
+      </c>
+      <c r="AU7" s="63">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="157"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="15">
+        <v>97</v>
+      </c>
+      <c r="F8" s="137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="15">
+        <v>61.6</v>
+      </c>
+      <c r="H8" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="15">
+        <v>61.9</v>
+      </c>
+      <c r="J8" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="86" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q8" s="87" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R8" s="88" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T8" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="130">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E8, AS$8:AS$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="V8" s="53">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G8, AT$8:AT$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="W8" s="54">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I8, AU$8:AU$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="Y8" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z8" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA8" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB8" s="186"/>
+      <c r="AC8" s="186"/>
+      <c r="AD8" s="186"/>
+      <c r="AE8" s="186"/>
+      <c r="AF8" s="186"/>
+      <c r="AG8" s="186"/>
+      <c r="AH8" s="186"/>
+      <c r="AI8" s="186"/>
+      <c r="AJ8" s="186"/>
+      <c r="AL8" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="55">
+        <v>92.2</v>
+      </c>
+      <c r="AN8" s="56">
+        <v>64</v>
+      </c>
+      <c r="AO8" s="57">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AP8" s="55">
+        <v>99.9</v>
+      </c>
+      <c r="AQ8" s="56">
+        <v>61.9</v>
+      </c>
+      <c r="AR8" s="57">
+        <v>62.5</v>
+      </c>
+      <c r="AS8" s="55">
+        <v>97</v>
+      </c>
+      <c r="AT8" s="56">
+        <v>61.6</v>
+      </c>
+      <c r="AU8" s="57">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" ht="15" customHeight="1">
+      <c r="A9" s="155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11">
+        <v>94.4</v>
+      </c>
+      <c r="F9" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="189">
+        <v>69.2</v>
+      </c>
+      <c r="H9" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="134">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E6, AD$8:AD$12, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="V6" s="110">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G6, AE$8:AE$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="W6" s="111">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I6, AF$8:AF$12, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="Y6" s="48">
-        <v>92.2</v>
-      </c>
-      <c r="Z6" s="38">
-        <v>64</v>
-      </c>
-      <c r="AA6" s="49">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="AC6" s="179"/>
-      <c r="AD6" s="62">
-        <v>79.5</v>
-      </c>
-      <c r="AE6" s="63">
-        <v>68.5</v>
-      </c>
-      <c r="AF6" s="64">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="AG6" s="62">
-        <v>68.7</v>
-      </c>
-      <c r="AH6" s="63">
-        <v>69.3</v>
-      </c>
-      <c r="AI6" s="64">
-        <v>72</v>
-      </c>
-      <c r="AJ6" s="62">
-        <v>71.7</v>
-      </c>
-      <c r="AK6" s="63">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="AL6" s="64">
-        <v>71.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="152"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="F7" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="15">
-        <v>61.9</v>
-      </c>
-      <c r="H7" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="15">
-        <v>62.5</v>
-      </c>
-      <c r="J7" s="144" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="89">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q7" s="90">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="R7" s="35">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="T7" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" s="68">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E7, AG$8:AG$12, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="V7" s="55">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G7, AH$8:AH$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="W7" s="56">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I7, AI$8:AI$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="Y7" s="48">
-        <v>99.9</v>
-      </c>
-      <c r="Z7" s="38">
-        <v>61.9</v>
-      </c>
-      <c r="AA7" s="49">
-        <v>62.5</v>
-      </c>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="65">
-        <v>80.3</v>
-      </c>
-      <c r="AE7" s="66">
-        <v>68.5</v>
-      </c>
-      <c r="AF7" s="67">
-        <v>71</v>
-      </c>
-      <c r="AG7" s="65">
-        <v>69.8</v>
-      </c>
-      <c r="AH7" s="66">
-        <v>69.3</v>
-      </c>
-      <c r="AI7" s="67">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="AJ7" s="65">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="AK7" s="66">
+      <c r="I9" s="11">
         <v>71.3</v>
       </c>
-      <c r="AL7" s="67">
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="153"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="18">
-        <v>97</v>
-      </c>
-      <c r="F8" s="142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="18">
-        <v>61.6</v>
-      </c>
-      <c r="H8" s="142" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="18">
-        <v>61.9</v>
-      </c>
-      <c r="J8" s="147" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="91">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q8" s="92">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="R8" s="93">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="T8" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="U8" s="135">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E8, AJ$8:AJ$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V8" s="57">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G8, AK$8:AK$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="W8" s="58">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I8, AL$8:AL$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="Y8" s="48">
-        <v>97</v>
-      </c>
-      <c r="Z8" s="38">
-        <v>61.6</v>
-      </c>
-      <c r="AA8" s="49">
-        <v>61.9</v>
-      </c>
-      <c r="AC8" s="178" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="59">
-        <v>92.2</v>
-      </c>
-      <c r="AE8" s="60">
-        <v>64</v>
-      </c>
-      <c r="AF8" s="61">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="AG8" s="59">
-        <v>99.9</v>
-      </c>
-      <c r="AH8" s="60">
-        <v>61.9</v>
-      </c>
-      <c r="AI8" s="61">
-        <v>62.5</v>
-      </c>
-      <c r="AJ8" s="59">
-        <v>97</v>
-      </c>
-      <c r="AK8" s="60">
-        <v>61.6</v>
-      </c>
-      <c r="AL8" s="61">
-        <v>61.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="151" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="154" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="169" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="14">
-        <v>94.4</v>
-      </c>
-      <c r="F9" s="138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="14">
-        <v>69.2</v>
-      </c>
-      <c r="H9" s="138" t="s">
+      <c r="J9" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="14">
-        <v>71.3</v>
-      </c>
-      <c r="J9" s="143" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="149">
+      <c r="K9" s="9"/>
+      <c r="L9" s="144">
         <f xml:space="preserve"> E9 / E12</f>
         <v>1.009625668449198</v>
       </c>
-      <c r="M9" s="149">
+      <c r="M9" s="144">
         <f xml:space="preserve"> G9 / G12</f>
         <v>1.1179321486268174</v>
       </c>
-      <c r="N9" s="149">
+      <c r="N9" s="144">
         <f xml:space="preserve"> I9 / I12</f>
         <v>1.1317460317460317</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="86">
-        <f t="shared" si="0"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="81" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q9" s="82" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R9" s="83" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T9" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="124">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E9, AM$3:AM$7, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="V9" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G9, AN$3:AN$7, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="W9" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I9, AO$3:AO$7, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y9" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z9" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA9" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB9" s="186"/>
+      <c r="AC9" s="186"/>
+      <c r="AD9" s="186"/>
+      <c r="AE9" s="186"/>
+      <c r="AF9" s="186"/>
+      <c r="AG9" s="186"/>
+      <c r="AH9" s="186"/>
+      <c r="AI9" s="186"/>
+      <c r="AJ9" s="186"/>
+      <c r="AL9" s="183"/>
+      <c r="AM9" s="58">
+        <v>93.5</v>
+      </c>
+      <c r="AN9" s="59">
+        <v>61.9</v>
+      </c>
+      <c r="AO9" s="60">
+        <v>63</v>
+      </c>
+      <c r="AP9" s="58">
+        <v>100</v>
+      </c>
+      <c r="AQ9" s="59">
+        <v>60</v>
+      </c>
+      <c r="AR9" s="60">
+        <v>60.1</v>
+      </c>
+      <c r="AS9" s="58">
+        <v>96.4</v>
+      </c>
+      <c r="AT9" s="59">
+        <v>59.9</v>
+      </c>
+      <c r="AU9" s="60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" ht="15" customHeight="1">
+      <c r="A10" s="156"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="87">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="R9" s="88">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T9" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="129">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E9, AD$3:AD$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V9" s="53">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G9, AE$3:AE$7, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="W9" s="54">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I9, AF$3:AF$7, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="Y9" s="48">
-        <v>94.4</v>
-      </c>
-      <c r="Z9" s="38">
-        <v>69.2</v>
-      </c>
-      <c r="AA9" s="49">
-        <v>71.3</v>
-      </c>
-      <c r="AC9" s="179"/>
-      <c r="AD9" s="62">
-        <v>93.5</v>
-      </c>
-      <c r="AE9" s="63">
-        <v>61.9</v>
-      </c>
-      <c r="AF9" s="64">
-        <v>63</v>
-      </c>
-      <c r="AG9" s="62">
+      <c r="E10" s="12">
         <v>100</v>
       </c>
-      <c r="AH9" s="63">
-        <v>60</v>
-      </c>
-      <c r="AI9" s="64">
-        <v>60.1</v>
-      </c>
-      <c r="AJ9" s="62">
-        <v>96.4</v>
-      </c>
-      <c r="AK9" s="63">
-        <v>59.9</v>
-      </c>
-      <c r="AL9" s="64">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
-      <c r="B10" s="155"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="15">
-        <v>100</v>
-      </c>
-      <c r="F10" s="139" t="s">
+      <c r="F10" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="190">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H10" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="12">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="J10" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="15">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="H10" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="15">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="J10" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="149">
+      <c r="K10" s="9"/>
+      <c r="L10" s="144">
         <f t="shared" ref="L10:L11" si="7" xml:space="preserve"> E10 / E13</f>
         <v>1</v>
       </c>
-      <c r="M10" s="149">
+      <c r="M10" s="144">
         <f t="shared" ref="M10:M11" si="8" xml:space="preserve"> G10 / G13</f>
         <v>1.0733333333333335</v>
       </c>
-      <c r="N10" s="149">
+      <c r="N10" s="144">
         <f t="shared" ref="N10:N11" si="9" xml:space="preserve"> I10 / I13</f>
         <v>1.096505823627288</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="89">
-        <f t="shared" si="0"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="84" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q10" s="85" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R10" s="31" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T10" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="124">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E10, AP$3:AP$7, 0)</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="90">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="R10" s="35">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="T10" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" s="129">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E10, AG$3:AG$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V10" s="53">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G10, AH$3:AH$7, 0)</f>
+      <c r="V10" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G10, AQ$3:AQ$7, 0)</f>
         <v>5</v>
       </c>
-      <c r="W10" s="54">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I10, AI$3:AI$7, 0)</f>
+      <c r="W10" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I10, AR$3:AR$7, 0)</f>
         <v>5</v>
       </c>
-      <c r="Y10" s="48">
+      <c r="Y10" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z10" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA10" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB10" s="186"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="186"/>
+      <c r="AH10" s="186"/>
+      <c r="AI10" s="186"/>
+      <c r="AJ10" s="186"/>
+      <c r="AL10" s="183"/>
+      <c r="AM10" s="58">
+        <v>80.7</v>
+      </c>
+      <c r="AN10" s="59">
+        <v>65.2</v>
+      </c>
+      <c r="AO10" s="60">
+        <v>62.8</v>
+      </c>
+      <c r="AP10" s="58">
+        <v>74.8</v>
+      </c>
+      <c r="AQ10" s="59">
+        <v>64.5</v>
+      </c>
+      <c r="AR10" s="60">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="AS10" s="58">
+        <v>76.8</v>
+      </c>
+      <c r="AT10" s="59">
+        <v>64</v>
+      </c>
+      <c r="AU10" s="60">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" ht="15" customHeight="1">
+      <c r="A11" s="156"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="13">
         <v>100</v>
       </c>
-      <c r="Z10" s="38">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="AA10" s="49">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="AC10" s="179"/>
-      <c r="AD10" s="62">
-        <v>80.7</v>
-      </c>
-      <c r="AE10" s="63">
-        <v>65.2</v>
-      </c>
-      <c r="AF10" s="64">
-        <v>62.8</v>
-      </c>
-      <c r="AG10" s="62">
-        <v>74.8</v>
-      </c>
-      <c r="AH10" s="63">
-        <v>64.5</v>
-      </c>
-      <c r="AI10" s="64">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="AJ10" s="62">
-        <v>76.8</v>
-      </c>
-      <c r="AK10" s="63">
-        <v>64</v>
-      </c>
-      <c r="AL10" s="64">
-        <v>67.099999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="120" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="16">
-        <v>100</v>
-      </c>
-      <c r="F11" s="140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="16">
+      <c r="F11" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="191">
         <v>62.6</v>
       </c>
-      <c r="H11" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="16">
+      <c r="H11" s="135" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="13">
         <v>62.2</v>
       </c>
-      <c r="J11" s="145" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="149">
+      <c r="J11" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="144">
         <f t="shared" si="7"/>
         <v>1.0373443983402488</v>
       </c>
-      <c r="M11" s="149">
+      <c r="M11" s="144">
         <f t="shared" si="8"/>
         <v>1.0450751252086812</v>
       </c>
-      <c r="N11" s="149">
+      <c r="N11" s="144">
         <f t="shared" si="9"/>
         <v>1.0542372881355933</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="112">
-        <f t="shared" si="0"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="107" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q11" s="108" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R11" s="109" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T11" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="125">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E11, AS$3:AS$7, 0)</f>
         <v>1</v>
       </c>
-      <c r="Q11" s="113">
-        <f t="shared" si="1"/>
+      <c r="V11" s="103">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G11, AT$3:AT$7, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="W11" s="104">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I11, AU$3:AU$7, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="Y11" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z11" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA11" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB11" s="186"/>
+      <c r="AC11" s="186"/>
+      <c r="AD11" s="186"/>
+      <c r="AE11" s="186"/>
+      <c r="AF11" s="186"/>
+      <c r="AG11" s="186"/>
+      <c r="AH11" s="186"/>
+      <c r="AI11" s="186"/>
+      <c r="AJ11" s="186"/>
+      <c r="AL11" s="183"/>
+      <c r="AM11" s="58">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AN11" s="59">
+        <v>64.2</v>
+      </c>
+      <c r="AO11" s="60">
+        <v>66.3</v>
+      </c>
+      <c r="AP11" s="58">
+        <v>83.7</v>
+      </c>
+      <c r="AQ11" s="59">
+        <v>62.4</v>
+      </c>
+      <c r="AR11" s="60">
+        <v>61.3</v>
+      </c>
+      <c r="AS11" s="58">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AT11" s="59">
+        <v>64.2</v>
+      </c>
+      <c r="AU11" s="60">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="156"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="14">
+        <v>93.5</v>
+      </c>
+      <c r="F12" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="14">
+        <v>61.9</v>
+      </c>
+      <c r="H12" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="14">
+        <v>63</v>
+      </c>
+      <c r="J12" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="114">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="T11" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" s="130">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E11, AJ$3:AJ$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V11" s="108">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G11, AK$3:AK$7, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="W11" s="109">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I11, AL$3:AL$7, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="Y11" s="48">
-        <v>93.5</v>
-      </c>
-      <c r="Z11" s="38">
-        <v>62.6</v>
-      </c>
-      <c r="AA11" s="49">
-        <v>62.2</v>
-      </c>
-      <c r="AC11" s="179"/>
-      <c r="AD11" s="62">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="AE11" s="63">
-        <v>64.2</v>
-      </c>
-      <c r="AF11" s="64">
-        <v>66.3</v>
-      </c>
-      <c r="AG11" s="62">
-        <v>83.7</v>
-      </c>
-      <c r="AH11" s="63">
-        <v>62.4</v>
-      </c>
-      <c r="AI11" s="64">
-        <v>61.3</v>
-      </c>
-      <c r="AJ11" s="62">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="AK11" s="63">
-        <v>64.2</v>
-      </c>
-      <c r="AL11" s="64">
-        <v>64.900000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
-      <c r="B12" s="155"/>
-      <c r="C12" s="172" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="17">
-        <v>93.5</v>
-      </c>
-      <c r="F12" s="141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="17">
-        <v>61.9</v>
-      </c>
-      <c r="H12" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="17">
-        <v>63</v>
-      </c>
-      <c r="J12" s="146" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="150">
+      <c r="K12" s="9"/>
+      <c r="L12" s="145">
         <f xml:space="preserve"> AVERAGE(L9:L11)</f>
         <v>1.0156566889298155</v>
       </c>
-      <c r="M12" s="150">
+      <c r="M12" s="145">
         <f t="shared" ref="M12" si="10" xml:space="preserve"> AVERAGE(M9:M11)</f>
         <v>1.0787802023896107</v>
       </c>
-      <c r="N12" s="150">
+      <c r="N12" s="145">
         <f t="shared" ref="N12" si="11" xml:space="preserve"> AVERAGE(N9:N11)</f>
         <v>1.0941630478363045</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="115">
-        <f t="shared" si="0"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="110" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q12" s="111" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R12" s="112" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T12" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="129">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E12, AM$8:AM$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="V12" s="105">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G12, AN$8:AN$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="W12" s="106">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I12, AO$8:AO$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="Y12" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z12" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA12" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB12" s="186"/>
+      <c r="AC12" s="186"/>
+      <c r="AD12" s="186"/>
+      <c r="AE12" s="186"/>
+      <c r="AF12" s="186"/>
+      <c r="AG12" s="186"/>
+      <c r="AH12" s="186"/>
+      <c r="AI12" s="186"/>
+      <c r="AJ12" s="186"/>
+      <c r="AL12" s="184"/>
+      <c r="AM12" s="61">
+        <v>85.6</v>
+      </c>
+      <c r="AN12" s="62">
+        <v>62</v>
+      </c>
+      <c r="AO12" s="63">
+        <v>63.2</v>
+      </c>
+      <c r="AP12" s="61">
+        <v>76</v>
+      </c>
+      <c r="AQ12" s="62">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AR12" s="63">
+        <v>66.5</v>
+      </c>
+      <c r="AS12" s="61">
+        <v>79.3</v>
+      </c>
+      <c r="AT12" s="62">
+        <v>63.3</v>
+      </c>
+      <c r="AU12" s="63">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" ht="15" customHeight="1">
+      <c r="A13" s="156"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="12">
+        <v>100</v>
+      </c>
+      <c r="F13" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="12">
+        <v>60</v>
+      </c>
+      <c r="H13" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="12">
+        <v>60.1</v>
+      </c>
+      <c r="J13" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="84" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q13" s="85" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R13" s="31" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T13" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="64">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E13, AP$8:AP$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="V13" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G13, AQ$8:AQ$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="W13" s="52">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I13, AR$8:AR$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="Y13" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z13" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA13" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB13" s="186"/>
+      <c r="AC13" s="186"/>
+      <c r="AD13" s="186"/>
+      <c r="AE13" s="186"/>
+      <c r="AF13" s="186"/>
+      <c r="AG13" s="186"/>
+      <c r="AH13" s="186"/>
+      <c r="AI13" s="186"/>
+      <c r="AJ13" s="186"/>
+    </row>
+    <row r="14" spans="1:47" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="157"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="116">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="R12" s="117">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="T12" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12" s="134">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E12, AD$8:AD$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V12" s="110">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G12, AE$8:AE$12, 0)</f>
+      <c r="E14" s="15">
+        <v>96.4</v>
+      </c>
+      <c r="F14" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="15">
+        <v>59.9</v>
+      </c>
+      <c r="H14" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="15">
+        <v>59</v>
+      </c>
+      <c r="J14" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="86" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q14" s="87" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R14" s="88" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T14" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="64">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E14, AS$8:AS$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="V14" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G14, AT$8:AT$12, 0)</f>
         <v>5</v>
       </c>
-      <c r="W12" s="111">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I12, AF$8:AF$12, 0)</f>
+      <c r="W14" s="52">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I14, AU$8:AU$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="Y14" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z14" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA14" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB14" s="186"/>
+      <c r="AC14" s="186"/>
+      <c r="AD14" s="186"/>
+      <c r="AE14" s="186"/>
+      <c r="AF14" s="186"/>
+      <c r="AG14" s="186"/>
+      <c r="AH14" s="186"/>
+      <c r="AI14" s="186"/>
+      <c r="AJ14" s="186"/>
+    </row>
+    <row r="15" spans="1:47" ht="15" customHeight="1">
+      <c r="A15" s="179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="Y12" s="48">
-        <v>96.4</v>
-      </c>
-      <c r="Z12" s="38">
-        <v>60</v>
-      </c>
-      <c r="AA12" s="49">
-        <v>63</v>
-      </c>
-      <c r="AC12" s="180"/>
-      <c r="AD12" s="65">
-        <v>85.6</v>
-      </c>
-      <c r="AE12" s="66">
-        <v>62</v>
-      </c>
-      <c r="AF12" s="67">
-        <v>63.2</v>
-      </c>
-      <c r="AG12" s="65">
-        <v>76</v>
-      </c>
-      <c r="AH12" s="66">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="AI12" s="67">
-        <v>66.5</v>
-      </c>
-      <c r="AJ12" s="65">
-        <v>79.3</v>
-      </c>
-      <c r="AK12" s="66">
-        <v>63.3</v>
-      </c>
-      <c r="AL12" s="67">
-        <v>65.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="152"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="15">
-        <v>100</v>
-      </c>
-      <c r="F13" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="15">
-        <v>60</v>
-      </c>
-      <c r="H13" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="15">
-        <v>60.1</v>
-      </c>
-      <c r="J13" s="144" t="s">
+      <c r="E15" s="11">
+        <v>74</v>
+      </c>
+      <c r="F15" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="189">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="H15" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="89">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="90">
-        <f t="shared" si="1"/>
+      <c r="I15" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="J15" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="35">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="T13" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="U13" s="68">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E13, AG$8:AG$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V13" s="55">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G13, AH$8:AH$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="W13" s="56">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I13, AI$8:AI$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="Y13" s="48">
-        <v>74</v>
-      </c>
-      <c r="Z13" s="38">
-        <v>59.9</v>
-      </c>
-      <c r="AA13" s="49">
-        <v>60.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="153"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="18">
-        <v>96.4</v>
-      </c>
-      <c r="F14" s="142" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="18">
-        <v>59.9</v>
-      </c>
-      <c r="H14" s="142" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="18">
-        <v>59</v>
-      </c>
-      <c r="J14" s="147" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="91">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q14" s="92">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R14" s="93">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="T14" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="U14" s="68">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E14, AJ$8:AJ$12, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="V14" s="55">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G14, AK$8:AK$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="W14" s="56">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I14, AL$8:AL$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="Y14" s="48">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="Z14" s="38">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="AA14" s="49">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="175" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="154" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="169" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="14">
-        <v>74</v>
-      </c>
-      <c r="F15" s="138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="14">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="H15" s="138" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="14">
-        <v>72.5</v>
-      </c>
-      <c r="J15" s="143" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="149">
+      <c r="K15" s="9"/>
+      <c r="L15" s="144">
         <f xml:space="preserve"> E15 / E18</f>
         <v>0.91697645600991318</v>
       </c>
-      <c r="M15" s="149">
+      <c r="M15" s="144">
         <f xml:space="preserve"> G15 / G18</f>
         <v>1.0644171779141105</v>
       </c>
-      <c r="N15" s="149">
+      <c r="N15" s="144">
         <f xml:space="preserve"> I15 / I18</f>
         <v>1.1544585987261147</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="86">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="Q15" s="87">
-        <f t="shared" si="1"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="81" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q15" s="82" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R15" s="83" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T15" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" s="123">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E15, AM$3:AM$7, 0)</f>
         <v>5</v>
       </c>
-      <c r="R15" s="88">
-        <f t="shared" si="2"/>
+      <c r="V15" s="89">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G15, AN$3:AN$7, 0)</f>
         <v>2</v>
       </c>
-      <c r="T15" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" s="128">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E15, AD$3:AD$7, 0)</f>
+      <c r="W15" s="90">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I15, AO$3:AO$7, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z15" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA15" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB15" s="186"/>
+      <c r="AC15" s="186"/>
+      <c r="AD15" s="186"/>
+      <c r="AE15" s="186"/>
+      <c r="AF15" s="186"/>
+      <c r="AG15" s="186"/>
+      <c r="AH15" s="186"/>
+      <c r="AI15" s="186"/>
+      <c r="AJ15" s="186"/>
+    </row>
+    <row r="16" spans="1:47" ht="15" customHeight="1">
+      <c r="A16" s="180"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="94">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G15, AE$3:AE$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="W15" s="95">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I15, AF$3:AF$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y15" s="48">
-        <v>69.5</v>
-      </c>
-      <c r="Z15" s="38">
-        <v>71.5</v>
-      </c>
-      <c r="AA15" s="49">
+      <c r="E16" s="12">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="190">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H16" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="12">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="176"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="15">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="F16" s="139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="15">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="H16" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="15">
-        <v>72.5</v>
-      </c>
-      <c r="J16" s="144" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="149">
+      <c r="J16" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="144">
         <f t="shared" ref="L16:L17" si="12" xml:space="preserve"> E16 / E19</f>
         <v>0.90775401069518724</v>
       </c>
-      <c r="M16" s="149">
+      <c r="M16" s="144">
         <f t="shared" ref="M16:M17" si="13" xml:space="preserve"> G16 / G19</f>
         <v>1.0837209302325583</v>
       </c>
-      <c r="N16" s="149">
+      <c r="N16" s="144">
         <f t="shared" ref="N16:N17" si="14" xml:space="preserve"> I16 / I19</f>
         <v>1.0885885885885886</v>
       </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="89">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="Q16" s="90">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R16" s="35">
-        <f t="shared" si="2"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="84" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q16" s="85" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R16" s="31" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T16" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="124">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E16, AP$3:AP$7, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="V16" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G16, AQ$3:AQ$7, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="W16" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I16, AR$3:AR$7, 0)</f>
         <v>2</v>
       </c>
-      <c r="T16" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="U16" s="129">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E16, AG$3:AG$7, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="V16" s="53">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G16, AH$3:AH$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="W16" s="54">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I16, AI$3:AI$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="Y16" s="48">
-        <v>80.7</v>
-      </c>
-      <c r="Z16" s="38">
-        <v>65.2</v>
-      </c>
-      <c r="AA16" s="49">
+      <c r="Y16" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z16" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA16" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB16" s="186"/>
+      <c r="AC16" s="186"/>
+      <c r="AD16" s="186"/>
+      <c r="AE16" s="186"/>
+      <c r="AF16" s="186"/>
+      <c r="AG16" s="186"/>
+      <c r="AH16" s="186"/>
+      <c r="AI16" s="186"/>
+      <c r="AJ16" s="186"/>
+    </row>
+    <row r="17" spans="1:36" ht="15" customHeight="1">
+      <c r="A17" s="180"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="13">
+        <v>69.5</v>
+      </c>
+      <c r="F17" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="191">
+        <v>71.5</v>
+      </c>
+      <c r="H17" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="13">
         <v>72.099999999999994</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="176"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="120" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="16">
-        <v>69.5</v>
-      </c>
-      <c r="F17" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="16">
-        <v>71.5</v>
-      </c>
-      <c r="H17" s="140" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="16">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="J17" s="145" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="149">
+      <c r="J17" s="140" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="144">
         <f t="shared" si="12"/>
         <v>0.90494791666666674</v>
       </c>
-      <c r="M17" s="149">
+      <c r="M17" s="144">
         <f t="shared" si="13"/>
         <v>1.1171875</v>
       </c>
-      <c r="N17" s="149">
+      <c r="N17" s="144">
         <f t="shared" si="14"/>
         <v>1.07451564828614</v>
       </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="112">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="Q17" s="113">
-        <f t="shared" si="1"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="107" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q17" s="108" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R17" s="109" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" s="125">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E17, AS$3:AS$7, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="V17" s="103">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G17, AT$3:AT$7, 0)</f>
         <v>1</v>
       </c>
-      <c r="R17" s="114">
-        <f t="shared" si="2"/>
+      <c r="W17" s="104">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I17, AU$3:AU$7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Y17" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z17" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA17" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB17" s="186"/>
+      <c r="AC17" s="186"/>
+      <c r="AD17" s="186"/>
+      <c r="AE17" s="186"/>
+      <c r="AF17" s="186"/>
+      <c r="AG17" s="186"/>
+      <c r="AH17" s="186"/>
+      <c r="AI17" s="186"/>
+      <c r="AJ17" s="186"/>
+    </row>
+    <row r="18" spans="1:36" ht="15" customHeight="1">
+      <c r="A18" s="180"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="T17" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="U17" s="130">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E17, AJ$3:AJ$7, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="V17" s="108">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G17, AK$3:AK$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="W17" s="109">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I17, AL$3:AL$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="Y17" s="48">
-        <v>74.8</v>
-      </c>
-      <c r="Z17" s="38">
-        <v>64.5</v>
-      </c>
-      <c r="AA17" s="49">
+      <c r="E18" s="14">
+        <v>80.7</v>
+      </c>
+      <c r="F18" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="14">
+        <v>65.2</v>
+      </c>
+      <c r="H18" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="14">
         <v>62.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="176"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="172" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="17">
-        <v>80.7</v>
-      </c>
-      <c r="F18" s="141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="17">
-        <v>65.2</v>
-      </c>
-      <c r="H18" s="141" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="17">
-        <v>62.8</v>
-      </c>
-      <c r="J18" s="146" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="150">
+      <c r="J18" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="145">
         <f xml:space="preserve"> AVERAGE(L15:L17)</f>
         <v>0.90989279445725568</v>
       </c>
-      <c r="M18" s="150">
+      <c r="M18" s="145">
         <f t="shared" ref="M18" si="15" xml:space="preserve"> AVERAGE(M15:M17)</f>
         <v>1.0884418693822229</v>
       </c>
-      <c r="N18" s="150">
+      <c r="N18" s="145">
         <f t="shared" ref="N18" si="16" xml:space="preserve"> AVERAGE(N15:N17)</f>
         <v>1.1058542785336145</v>
       </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="115">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q18" s="116">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="R18" s="117">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="T18" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="U18" s="134">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E18, AD$8:AD$12, 0)</f>
+      <c r="O18" s="9"/>
+      <c r="P18" s="110" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q18" s="111" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R18" s="112" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T18" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" s="129">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E18, AM$8:AM$12, 0)</f>
         <v>4</v>
       </c>
-      <c r="V18" s="110">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G18, AE$8:AE$12, 0)</f>
+      <c r="V18" s="105">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G18, AN$8:AN$12, 0)</f>
         <v>1</v>
       </c>
-      <c r="W18" s="111">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I18, AF$8:AF$12, 0)</f>
+      <c r="W18" s="106">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I18, AO$8:AO$12, 0)</f>
         <v>5</v>
       </c>
-      <c r="Y18" s="48">
+      <c r="Y18" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z18" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA18" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB18" s="186"/>
+      <c r="AC18" s="186"/>
+      <c r="AD18" s="186"/>
+      <c r="AE18" s="186"/>
+      <c r="AF18" s="186"/>
+      <c r="AG18" s="186"/>
+      <c r="AH18" s="186"/>
+      <c r="AI18" s="186"/>
+      <c r="AJ18" s="186"/>
+    </row>
+    <row r="19" spans="1:36" ht="15" customHeight="1">
+      <c r="A19" s="180"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="12">
+        <v>74.8</v>
+      </c>
+      <c r="F19" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="12">
+        <v>64.5</v>
+      </c>
+      <c r="H19" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="12">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="J19" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="84" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q19" s="85" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R19" s="31" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T19" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" s="64">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E19, AP$8:AP$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="V19" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G19, AQ$8:AQ$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="W19" s="52">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I19, AR$8:AR$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z19" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA19" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB19" s="186"/>
+      <c r="AC19" s="186"/>
+      <c r="AD19" s="186"/>
+      <c r="AE19" s="186"/>
+      <c r="AF19" s="186"/>
+      <c r="AG19" s="186"/>
+      <c r="AH19" s="186"/>
+      <c r="AI19" s="186"/>
+      <c r="AJ19" s="186"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="181"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="15">
         <v>76.8</v>
       </c>
-      <c r="Z18" s="38">
+      <c r="F20" s="137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="15">
+        <v>64</v>
+      </c>
+      <c r="H20" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="15">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="J20" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="86" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q20" s="87" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R20" s="88" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T20" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" s="130">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E20, AS$8:AS$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="V20" s="53">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G20, AT$8:AT$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="W20" s="54">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I20, AU$8:AU$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z20" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA20" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB20" s="186"/>
+      <c r="AC20" s="186"/>
+      <c r="AD20" s="186"/>
+      <c r="AE20" s="186"/>
+      <c r="AF20" s="186"/>
+      <c r="AG20" s="186"/>
+      <c r="AH20" s="186"/>
+      <c r="AI20" s="186"/>
+      <c r="AJ20" s="186"/>
+    </row>
+    <row r="21" spans="1:36" ht="15" customHeight="1">
+      <c r="A21" s="179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="11">
+        <v>79.5</v>
+      </c>
+      <c r="F21" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="189">
         <v>68.5</v>
       </c>
-      <c r="AA18" s="49">
-        <v>66.599999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="176"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="15">
-        <v>74.8</v>
-      </c>
-      <c r="F19" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="15">
-        <v>64.5</v>
-      </c>
-      <c r="H19" s="139" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="15">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="J19" s="144" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="89">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="Q19" s="90">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="R19" s="35">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="T19" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="U19" s="68">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E19, AG$8:AG$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="V19" s="55">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G19, AH$8:AH$12, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="W19" s="56">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I19, AI$8:AI$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y19" s="48">
-        <v>79.5</v>
-      </c>
-      <c r="Z19" s="38">
-        <v>69.3</v>
-      </c>
-      <c r="AA19" s="49">
-        <v>67.099999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="177"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="18">
-        <v>76.8</v>
-      </c>
-      <c r="F20" s="142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="18">
-        <v>64</v>
-      </c>
-      <c r="H20" s="142" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="18">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="J20" s="147" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="91">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="Q20" s="92">
-        <f t="shared" si="1"/>
+      <c r="H21" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="R20" s="93">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="T20" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="U20" s="135">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E20, AJ$8:AJ$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="V20" s="57">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G20, AK$8:AK$12, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="W20" s="58">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I20, AL$8:AL$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y20" s="48">
-        <v>68.7</v>
-      </c>
-      <c r="Z20" s="38">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="AA20" s="49">
+      <c r="I21" s="11">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="175" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="154" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="169" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="14">
-        <v>79.5</v>
-      </c>
-      <c r="F21" s="138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="14">
-        <v>68.5</v>
-      </c>
-      <c r="H21" s="138" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="14">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="J21" s="143" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="149">
+      <c r="J21" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="144">
         <f xml:space="preserve"> E21 / E24</f>
         <v>1.0311284046692608</v>
       </c>
-      <c r="M21" s="149">
+      <c r="M21" s="144">
         <f xml:space="preserve"> G21 / G24</f>
         <v>1.0669781931464175</v>
       </c>
-      <c r="N21" s="149">
+      <c r="N21" s="144">
         <f xml:space="preserve"> I21 / I24</f>
         <v>1.057315233785822</v>
       </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="86">
-        <f t="shared" si="0"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="81" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q21" s="82" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R21" s="83" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T21" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="124">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E21, AM$3:AM$7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="V21" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G21, AN$3:AN$7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="W21" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I21, AO$3:AO$7, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="Y21" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z21" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA21" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB21" s="186"/>
+      <c r="AC21" s="186"/>
+      <c r="AD21" s="186"/>
+      <c r="AE21" s="186"/>
+      <c r="AF21" s="186"/>
+      <c r="AG21" s="186"/>
+      <c r="AH21" s="186"/>
+      <c r="AI21" s="186"/>
+      <c r="AJ21" s="186"/>
+    </row>
+    <row r="22" spans="1:36" ht="15" customHeight="1">
+      <c r="A22" s="180"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="12">
+        <v>68.7</v>
+      </c>
+      <c r="F22" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="190">
+        <v>69.3</v>
+      </c>
+      <c r="H22" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="87">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R21" s="88">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="T21" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="U21" s="129">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E21, AD$3:AD$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="V21" s="53">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G21, AE$3:AE$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="W21" s="54">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I21, AF$3:AF$7, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="Y21" s="48">
-        <v>71.7</v>
-      </c>
-      <c r="Z21" s="38">
-        <v>64.2</v>
-      </c>
-      <c r="AA21" s="49">
+      <c r="I22" s="12">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="176"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="15">
-        <v>68.7</v>
-      </c>
-      <c r="F22" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="15">
-        <v>69.3</v>
-      </c>
-      <c r="H22" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="15">
-        <v>72</v>
-      </c>
-      <c r="J22" s="144" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="149">
+      <c r="J22" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="144">
         <f t="shared" ref="L22:L23" si="17" xml:space="preserve"> E22 / E25</f>
         <v>0.82078853046594979</v>
       </c>
-      <c r="M22" s="149">
+      <c r="M22" s="144">
         <f t="shared" ref="M22:M23" si="18" xml:space="preserve"> G22 / G25</f>
         <v>1.1105769230769231</v>
       </c>
-      <c r="N22" s="149">
+      <c r="N22" s="144">
         <f t="shared" ref="N22:N23" si="19" xml:space="preserve"> I22 / I25</f>
         <v>1.1745513866231647</v>
       </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="89">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="Q22" s="90">
-        <f t="shared" si="1"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="84" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q22" s="85" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R22" s="31" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T22" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="124">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E22, AP$3:AP$7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="V22" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G22, AQ$3:AQ$7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="W22" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I22, AR$3:AR$7, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y22" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z22" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA22" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB22" s="186"/>
+      <c r="AC22" s="186"/>
+      <c r="AD22" s="186"/>
+      <c r="AE22" s="186"/>
+      <c r="AF22" s="186"/>
+      <c r="AG22" s="186"/>
+      <c r="AH22" s="186"/>
+      <c r="AI22" s="186"/>
+      <c r="AJ22" s="186"/>
+    </row>
+    <row r="23" spans="1:36" ht="15" customHeight="1">
+      <c r="A23" s="180"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="R22" s="35">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="T22" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="U22" s="129">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E22, AG$3:AG$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="V22" s="53">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G22, AH$3:AH$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="W22" s="54">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I22, AI$3:AI$7, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="Y22" s="48">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="Z22" s="38">
-        <v>62.4</v>
-      </c>
-      <c r="AA22" s="49">
+      <c r="E23" s="13">
+        <v>71.7</v>
+      </c>
+      <c r="F23" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="191">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="H23" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="13">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="176"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="120" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="16">
-        <v>71.7</v>
-      </c>
-      <c r="F23" s="140" t="s">
+      <c r="J23" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="16">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="H23" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="16">
-        <v>71.8</v>
-      </c>
-      <c r="J23" s="145" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="149">
+      <c r="K23" s="9"/>
+      <c r="L23" s="144">
         <f t="shared" si="17"/>
         <v>0.88957816377171228</v>
       </c>
-      <c r="M23" s="149">
+      <c r="M23" s="144">
         <f t="shared" si="18"/>
         <v>1.099688473520249</v>
       </c>
-      <c r="N23" s="149">
+      <c r="N23" s="144">
         <f t="shared" si="19"/>
         <v>1.106317411402157</v>
       </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="112">
-        <f t="shared" si="0"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="107" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q23" s="108" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R23" s="109" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T23" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" s="125">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E23, AS$3:AS$7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="V23" s="103">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G23, AT$3:AT$7, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="W23" s="104">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I23, AU$3:AU$7, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y23" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z23" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA23" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB23" s="186"/>
+      <c r="AC23" s="186"/>
+      <c r="AD23" s="186"/>
+      <c r="AE23" s="186"/>
+      <c r="AF23" s="186"/>
+      <c r="AG23" s="186"/>
+      <c r="AH23" s="186"/>
+      <c r="AI23" s="186"/>
+      <c r="AJ23" s="186"/>
+    </row>
+    <row r="24" spans="1:36" ht="15" customHeight="1">
+      <c r="A24" s="180"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="14">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="F24" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="14">
+        <v>64.2</v>
+      </c>
+      <c r="H24" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="14">
+        <v>66.3</v>
+      </c>
+      <c r="J24" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="113">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R23" s="114">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="T23" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="U23" s="130">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E23, AJ$3:AJ$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="V23" s="108">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G23, AK$3:AK$7, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="W23" s="109">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I23, AL$3:AL$7, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="Y23" s="48">
-        <v>83.7</v>
-      </c>
-      <c r="Z23" s="38">
-        <v>71.3</v>
-      </c>
-      <c r="AA23" s="49">
-        <v>66.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="176"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="172" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="17">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="F24" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="17">
-        <v>64.2</v>
-      </c>
-      <c r="H24" s="141" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="17">
-        <v>66.3</v>
-      </c>
-      <c r="J24" s="146" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="150">
+      <c r="K24" s="9"/>
+      <c r="L24" s="145">
         <f xml:space="preserve"> AVERAGE(L21:L23)</f>
         <v>0.91383169963564104</v>
       </c>
-      <c r="M24" s="150">
+      <c r="M24" s="145">
         <f t="shared" ref="M24" si="20" xml:space="preserve"> AVERAGE(M21:M23)</f>
         <v>1.0924145299145298</v>
       </c>
-      <c r="N24" s="150">
+      <c r="N24" s="145">
         <f t="shared" ref="N24" si="21" xml:space="preserve"> AVERAGE(N21:N23)</f>
         <v>1.1127280106037145</v>
       </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="115">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="Q24" s="116">
-        <f t="shared" si="1"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="110" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q24" s="111" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R24" s="112" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T24" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" s="129">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E24, AM$8:AM$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="V24" s="105">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G24, AN$8:AN$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="W24" s="106">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I24, AO$8:AO$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z24" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA24" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB24" s="186"/>
+      <c r="AC24" s="186"/>
+      <c r="AD24" s="186"/>
+      <c r="AE24" s="186"/>
+      <c r="AF24" s="186"/>
+      <c r="AG24" s="186"/>
+      <c r="AH24" s="186"/>
+      <c r="AI24" s="186"/>
+      <c r="AJ24" s="186"/>
+    </row>
+    <row r="25" spans="1:36" ht="15" customHeight="1">
+      <c r="A25" s="180"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="12">
+        <v>83.7</v>
+      </c>
+      <c r="F25" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="12">
+        <v>62.4</v>
+      </c>
+      <c r="H25" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="R24" s="117">
-        <f t="shared" si="2"/>
+      <c r="I25" s="12">
+        <v>61.3</v>
+      </c>
+      <c r="J25" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="T24" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="U24" s="134">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E24, AD$8:AD$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="V24" s="110">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G24, AE$8:AE$12, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="W24" s="111">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I24, AF$8:AF$12, 0)</f>
+      <c r="K25" s="9"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="84" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q25" s="85" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R25" s="31" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T25" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" s="64">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E25, AP$8:AP$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="V25" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G25, AQ$8:AQ$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="W25" s="52">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I25, AR$8:AR$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="Y25" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z25" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA25" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB25" s="186"/>
+      <c r="AC25" s="186"/>
+      <c r="AD25" s="186"/>
+      <c r="AE25" s="186"/>
+      <c r="AF25" s="186"/>
+      <c r="AG25" s="186"/>
+      <c r="AH25" s="186"/>
+      <c r="AI25" s="186"/>
+      <c r="AJ25" s="186"/>
+    </row>
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="181"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="15">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F26" s="137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="15">
+        <v>64.2</v>
+      </c>
+      <c r="H26" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="15">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J26" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="86" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q26" s="87" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R26" s="88" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T26" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" s="64">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E26, AS$8:AS$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="V26" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G26, AT$8:AT$12, 0)</f>
         <v>1</v>
       </c>
-      <c r="Y24" s="48">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="Z24" s="38">
-        <v>62</v>
-      </c>
-      <c r="AA24" s="49">
-        <v>61.3</v>
-      </c>
+      <c r="W26" s="52">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I26, AU$8:AU$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y26" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z26" s="34" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA26" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB26" s="186"/>
+      <c r="AC26" s="186"/>
+      <c r="AD26" s="186"/>
+      <c r="AE26" s="186"/>
+      <c r="AF26" s="186"/>
+      <c r="AG26" s="186"/>
+      <c r="AH26" s="186"/>
+      <c r="AI26" s="186"/>
+      <c r="AJ26" s="186"/>
     </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="176"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="15">
-        <v>83.7</v>
-      </c>
-      <c r="F25" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="15">
-        <v>62.4</v>
-      </c>
-      <c r="H25" s="139" t="s">
+    <row r="27" spans="1:36" ht="15" customHeight="1">
+      <c r="A27" s="179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="11">
+        <v>80.3</v>
+      </c>
+      <c r="F27" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="189">
+        <v>68.5</v>
+      </c>
+      <c r="H27" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="15">
-        <v>61.3</v>
-      </c>
-      <c r="J25" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="89">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="Q25" s="90">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="R25" s="35">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="T25" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="U25" s="68">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E25, AG$8:AG$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="V25" s="55">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G25, AH$8:AH$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="W25" s="56">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I25, AI$8:AI$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="Y25" s="48">
-        <v>80.3</v>
-      </c>
-      <c r="Z25" s="38">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="AA25" s="49">
-        <v>64.900000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="177"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="18">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="F26" s="142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="18">
-        <v>64.2</v>
-      </c>
-      <c r="H26" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="18">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="J26" s="147" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="91">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Q26" s="92">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="R26" s="93">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="T26" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="U26" s="68">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E26, AJ$8:AJ$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="V26" s="55">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G26, AK$8:AK$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="W26" s="56">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I26, AL$8:AL$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="Y26" s="48">
-        <v>69.8</v>
-      </c>
-      <c r="Z26" s="38">
-        <v>63.3</v>
-      </c>
-      <c r="AA26" s="49">
+      <c r="I27" s="11">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="175" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="154" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="169" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="14">
-        <v>80.3</v>
-      </c>
-      <c r="F27" s="138" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="14">
-        <v>68.5</v>
-      </c>
-      <c r="H27" s="138" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="14">
-        <v>71</v>
-      </c>
-      <c r="J27" s="143" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="149">
+      <c r="J27" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="144">
         <f xml:space="preserve"> E27 / E30</f>
         <v>0.93808411214953269</v>
       </c>
-      <c r="M27" s="149">
+      <c r="M27" s="144">
         <f xml:space="preserve"> G27 / G30</f>
         <v>1.1048387096774193</v>
       </c>
-      <c r="N27" s="149">
+      <c r="N27" s="144">
         <f xml:space="preserve"> I27 / I30</f>
         <v>1.1234177215189873</v>
       </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="89">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Q27" s="90">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R27" s="35">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="T27" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="U27" s="128">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E27, AD$3:AD$7, 0)</f>
+      <c r="O27" s="9"/>
+      <c r="P27" s="84" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q27" s="85" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R27" s="31" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T27" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" s="123">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E27, AM$3:AM$7, 0)</f>
         <v>3</v>
       </c>
-      <c r="V27" s="94">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G27, AE$3:AE$7, 0)</f>
+      <c r="V27" s="89">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G27, AN$3:AN$7, 0)</f>
         <v>4</v>
       </c>
-      <c r="W27" s="95">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I27, AF$3:AF$7, 0)</f>
+      <c r="W27" s="90">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I27, AO$3:AO$7, 0)</f>
         <v>4</v>
       </c>
-      <c r="Y27" s="48">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="49">
+      <c r="Y27" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB27" s="186"/>
+      <c r="AC27" s="186"/>
+      <c r="AD27" s="186"/>
+      <c r="AE27" s="186"/>
+      <c r="AF27" s="186"/>
+      <c r="AG27" s="186"/>
+      <c r="AH27" s="186"/>
+      <c r="AI27" s="186"/>
+      <c r="AJ27" s="186"/>
+    </row>
+    <row r="28" spans="1:36" ht="15" customHeight="1">
+      <c r="A28" s="180"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>69.8</v>
+      </c>
+      <c r="F28" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="190">
+        <v>69.3</v>
+      </c>
+      <c r="H28" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="12">
         <v>72.599999999999994</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="176"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="15">
-        <v>69.8</v>
-      </c>
-      <c r="F28" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="15">
-        <v>69.3</v>
-      </c>
-      <c r="H28" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="15">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="J28" s="144" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="149">
+      <c r="J28" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="144">
         <f t="shared" ref="L28:L29" si="22" xml:space="preserve"> E28 / E31</f>
         <v>0.91842105263157892</v>
       </c>
-      <c r="M28" s="149">
+      <c r="M28" s="144">
         <f t="shared" ref="M28:M29" si="23" xml:space="preserve"> G28 / G31</f>
         <v>1.0727554179566563</v>
       </c>
-      <c r="N28" s="149">
+      <c r="N28" s="144">
         <f t="shared" ref="N28:N29" si="24" xml:space="preserve"> I28 / I31</f>
         <v>1.0917293233082705</v>
       </c>
-      <c r="O28" s="12"/>
-      <c r="P28" s="89">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="Q28" s="90">
-        <f t="shared" si="1"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="84" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q28" s="85" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R28" s="31" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T28" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" s="124">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E28, AP$3:AP$7, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="V28" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G28, AQ$3:AQ$7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="W28" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I28, AR$3:AR$7, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB28" s="186"/>
+      <c r="AC28" s="186"/>
+      <c r="AD28" s="186"/>
+      <c r="AE28" s="186"/>
+      <c r="AF28" s="186"/>
+      <c r="AG28" s="186"/>
+      <c r="AH28" s="186"/>
+      <c r="AI28" s="186"/>
+      <c r="AJ28" s="186"/>
+    </row>
+    <row r="29" spans="1:36" ht="15" customHeight="1">
+      <c r="A29" s="180"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="R28" s="35">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T28" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="U28" s="129">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E28, AG$3:AG$7, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="V28" s="53">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G28, AH$3:AH$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="W28" s="54">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I28, AI$3:AI$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y28" s="48">
-        <v>85.6</v>
-      </c>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="49">
-        <v>63.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="176"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="120" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="16">
+      <c r="E29" s="13">
         <v>71.900000000000006</v>
       </c>
-      <c r="F29" s="140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="16">
+      <c r="F29" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="191">
         <v>71.3</v>
       </c>
-      <c r="H29" s="140" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="16">
+      <c r="H29" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="13">
         <v>72.2</v>
       </c>
-      <c r="J29" s="145" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="149">
+      <c r="J29" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="144">
         <f t="shared" si="22"/>
         <v>0.9066834804539724</v>
       </c>
-      <c r="M29" s="149">
+      <c r="M29" s="144">
         <f t="shared" si="23"/>
         <v>1.1263823064770933</v>
       </c>
-      <c r="N29" s="149">
+      <c r="N29" s="144">
         <f t="shared" si="24"/>
         <v>1.0989345509893456</v>
       </c>
-      <c r="O29" s="12"/>
-      <c r="P29" s="112">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="Q29" s="113">
-        <f t="shared" si="1"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="107" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q29" s="108" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R29" s="109" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T29" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" s="125">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E29, AS$3:AS$7, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="V29" s="103">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G29, AT$3:AT$7, 0)</f>
         <v>2</v>
       </c>
-      <c r="R29" s="114">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="T29" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="U29" s="130">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E29, AJ$3:AJ$7, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="V29" s="108">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G29, AK$3:AK$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="W29" s="109">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I29, AL$3:AL$7, 0)</f>
+      <c r="W29" s="104">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I29, AU$3:AU$7, 0)</f>
         <v>1</v>
       </c>
-      <c r="Y29" s="48">
-        <v>76</v>
-      </c>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="49">
-        <v>66.5</v>
-      </c>
+      <c r="Y29" s="44" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="45" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB29" s="186"/>
+      <c r="AC29" s="186"/>
+      <c r="AD29" s="186"/>
+      <c r="AE29" s="186"/>
+      <c r="AF29" s="186"/>
+      <c r="AG29" s="186"/>
+      <c r="AH29" s="186"/>
+      <c r="AI29" s="186"/>
+      <c r="AJ29" s="186"/>
     </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="176"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="172" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="17">
+    <row r="30" spans="1:36" ht="15" customHeight="1" thickBot="1">
+      <c r="A30" s="180"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="14">
         <v>85.6</v>
       </c>
-      <c r="F30" s="141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="17">
+      <c r="F30" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="14">
         <v>62</v>
       </c>
-      <c r="H30" s="141" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="17">
+      <c r="H30" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="14">
         <v>63.2</v>
       </c>
-      <c r="J30" s="146" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="150">
+      <c r="J30" s="141" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="145">
         <f xml:space="preserve"> AVERAGE(L27:L29)</f>
         <v>0.92106288174502804</v>
       </c>
-      <c r="M30" s="150">
+      <c r="M30" s="145">
         <f t="shared" ref="M30" si="25" xml:space="preserve"> AVERAGE(M27:M29)</f>
         <v>1.1013254780370563</v>
       </c>
-      <c r="N30" s="150">
+      <c r="N30" s="145">
         <f t="shared" ref="N30" si="26" xml:space="preserve"> AVERAGE(N27:N29)</f>
         <v>1.1046938652722011</v>
       </c>
-      <c r="O30" s="12"/>
-      <c r="P30" s="115">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="Q30" s="116">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="R30" s="117">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="T30" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="U30" s="134">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E30, AD$8:AD$12, 0)</f>
+      <c r="O30" s="9"/>
+      <c r="P30" s="110" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q30" s="111" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R30" s="112" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T30" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="U30" s="129">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E30, AM$8:AM$12, 0)</f>
         <v>3</v>
       </c>
-      <c r="V30" s="110">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G30, AE$8:AE$12, 0)</f>
+      <c r="V30" s="105">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G30, AN$8:AN$12, 0)</f>
         <v>4</v>
       </c>
-      <c r="W30" s="111">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I30, AF$8:AF$12, 0)</f>
+      <c r="W30" s="106">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I30, AO$8:AO$12, 0)</f>
         <v>3</v>
       </c>
-      <c r="Y30" s="50">
+      <c r="Y30" s="46" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="48" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB30" s="186"/>
+      <c r="AC30" s="186"/>
+      <c r="AD30" s="186"/>
+      <c r="AE30" s="186"/>
+      <c r="AF30" s="186"/>
+      <c r="AG30" s="186"/>
+      <c r="AH30" s="186"/>
+      <c r="AI30" s="186"/>
+      <c r="AJ30" s="186"/>
+    </row>
+    <row r="31" spans="1:36" ht="15" customHeight="1">
+      <c r="A31" s="180"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="12">
+        <v>76</v>
+      </c>
+      <c r="F31" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="12">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="H31" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="J31" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="143"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="84" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q31" s="85" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R31" s="31" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T31" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="U31" s="64">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E31, AP$8:AP$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="V31" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G31, AQ$8:AQ$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="W31" s="52">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I31, AR$8:AR$12, 0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="181"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="15">
         <v>79.3</v>
       </c>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="52">
+      <c r="F32" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="15">
+        <v>63.3</v>
+      </c>
+      <c r="H32" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="15">
         <v>65.7</v>
       </c>
+      <c r="J32" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="143"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="86" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q32" s="87" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R32" s="88" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="T32" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32" s="130">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(E32, AS$8:AS$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="V32" s="53">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(G32, AT$8:AT$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="W32" s="54">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(I32, AU$8:AU$12, 0)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="176"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="119" t="s">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A33" s="65"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="9"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="186"/>
+      <c r="C34" s="187">
+        <f xml:space="preserve"> MAX(Test_Score_Train)</f>
+        <v>71.5</v>
+      </c>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="9"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="186"/>
+      <c r="C35" s="187">
+        <f xml:space="preserve"> MAX(G6:G8, G12:G14, G18:G20, G24:G26, G30:G32)</f>
+        <v>65.2</v>
+      </c>
+      <c r="D35" s="148"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="143"/>
+      <c r="N35" s="143"/>
+      <c r="O35" s="9"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A36" s="188"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="143"/>
+      <c r="N36" s="143"/>
+      <c r="O36" s="9"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A37" s="188"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="143"/>
+      <c r="N37" s="143"/>
+      <c r="O37" s="9"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A38" s="188"/>
+      <c r="B38" s="146"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="9"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A39" s="188"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="143"/>
+      <c r="M39" s="143"/>
+      <c r="N39" s="143"/>
+      <c r="O39" s="9"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A40" s="29"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="143"/>
+      <c r="M40" s="143"/>
+      <c r="N40" s="143"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="3"/>
+      <c r="Y40" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15" customHeight="1">
+      <c r="A41" s="161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="164" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="18">
+        <v>94.4</v>
+      </c>
+      <c r="F41" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="18">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="H41" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="18">
+        <v>81.7</v>
+      </c>
+      <c r="J41" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="144">
+        <f xml:space="preserve"> E41 / E44</f>
+        <v>0.96326530612244898</v>
+      </c>
+      <c r="M41" s="144">
+        <f xml:space="preserve"> G41 / G44</f>
+        <v>1.1135303265940901</v>
+      </c>
+      <c r="N41" s="144">
+        <f xml:space="preserve"> I41 / I44</f>
+        <v>1.1490857946554149</v>
+      </c>
+      <c r="O41" s="9"/>
+      <c r="P41" s="35" t="e">
+        <f t="shared" ref="P41:P46" ca="1" si="27" xml:space="preserve"> _xlfn.RANK.EQ(E41, Y$41:Y$46, 0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q41" s="36" t="e">
+        <f t="shared" ref="Q41:Q46" ca="1" si="28" xml:space="preserve"> _xlfn.RANK.EQ(G41,_xlfn.ANCHORARRAY( Z$41), 0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R41" s="37" t="e">
+        <f t="shared" ref="R41:R46" ca="1" si="29" xml:space="preserve"> RANK(I41,_xlfn.ANCHORARRAY( AA$41), 0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y41" s="69" t="e" cm="1">
+        <f t="array" aca="1" ref="Y41:Y44" ca="1" xml:space="preserve"> _xlfn.UNIQUE(E41:E46)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z41" s="69" t="e" cm="1">
+        <f t="array" aca="1" ref="Z41:Z46" ca="1" xml:space="preserve"> _xlfn.UNIQUE(G41:G46)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA41" s="70" t="e" cm="1">
+        <f t="array" aca="1" ref="AA41:AA46" ca="1" xml:space="preserve"> _xlfn.UNIQUE(I41:I46)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15" customHeight="1">
+      <c r="A42" s="162"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="19">
+        <v>100</v>
+      </c>
+      <c r="F42" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="19">
+        <v>73.5</v>
+      </c>
+      <c r="H42" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="19">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J42" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="144">
+        <f t="shared" ref="L42:L43" si="30" xml:space="preserve"> E42 / E45</f>
+        <v>1</v>
+      </c>
+      <c r="M42" s="144">
+        <f t="shared" ref="M42:M43" si="31" xml:space="preserve"> G42 / G45</f>
+        <v>1.2148760330578512</v>
+      </c>
+      <c r="N42" s="144">
+        <f t="shared" ref="N42:N43" si="32" xml:space="preserve"> I42 / I45</f>
+        <v>1.2090225563909776</v>
+      </c>
+      <c r="O42" s="9"/>
+      <c r="P42" s="38" t="e">
+        <f t="shared" ca="1" si="27"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q42" s="39" t="e">
+        <f t="shared" ca="1" si="28"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R42" s="40" t="e">
+        <f t="shared" ca="1" si="29"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y42" s="71" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z42" s="71" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA42" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="15" customHeight="1">
+      <c r="A43" s="162"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="15">
-        <v>76</v>
-      </c>
-      <c r="F31" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="15">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="H31" s="139" t="s">
+      <c r="E43" s="23">
+        <v>96</v>
+      </c>
+      <c r="F43" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="23">
+        <v>71.2</v>
+      </c>
+      <c r="H43" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="23">
+        <v>78</v>
+      </c>
+      <c r="J43" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="15">
-        <v>66.5</v>
-      </c>
-      <c r="J31" s="144" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="148"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="89">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="Q31" s="90">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="R31" s="35">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="T31" s="132" t="s">
-        <v>34</v>
-      </c>
-      <c r="U31" s="68">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E31, AG$8:AG$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="V31" s="55">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G31, AH$8:AH$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="W31" s="56">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I31, AI$8:AI$12, 0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="177"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="18">
-        <v>79.3</v>
-      </c>
-      <c r="F32" s="142" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="18">
-        <v>63.3</v>
-      </c>
-      <c r="H32" s="142" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="18">
-        <v>65.7</v>
-      </c>
-      <c r="J32" s="147" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="91">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="Q32" s="92">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="R32" s="93">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="T32" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="U32" s="135">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E32, AJ$8:AJ$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="V32" s="57">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G32, AK$8:AK$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="W32" s="58">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I32, AL$8:AL$12, 0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="12"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="3"/>
-      <c r="Y34" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA34" s="73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="157" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="160" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="21">
-        <v>94.4</v>
-      </c>
-      <c r="F35" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="21">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="H35" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="21">
-        <v>81.7</v>
-      </c>
-      <c r="J35" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="149">
-        <f xml:space="preserve"> E35 / E38</f>
-        <v>0.96326530612244898</v>
-      </c>
-      <c r="M35" s="149">
-        <f xml:space="preserve"> G35 / G38</f>
-        <v>1.1135303265940901</v>
-      </c>
-      <c r="N35" s="149">
-        <f xml:space="preserve"> I35 / I38</f>
-        <v>1.1490857946554149</v>
-      </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="39">
-        <f t="shared" ref="P35:P40" si="27" xml:space="preserve"> _xlfn.RANK.EQ(E35, Y$35:Y$40, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="Q35" s="40">
-        <f t="shared" ref="Q35:Q40" si="28" xml:space="preserve"> _xlfn.RANK.EQ(G35,_xlfn.ANCHORARRAY( Z$35), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="R35" s="41">
-        <f t="shared" ref="R35:R40" si="29" xml:space="preserve"> RANK(I35,_xlfn.ANCHORARRAY( AA$35), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y35" s="74" cm="1">
-        <f t="array" ref="Y35:Y38" xml:space="preserve"> _xlfn.UNIQUE(E35:E40)</f>
-        <v>94.4</v>
-      </c>
-      <c r="Z35" s="74" cm="1">
-        <f t="array" ref="Z35:Z40" xml:space="preserve"> _xlfn.UNIQUE(G35:G40)</f>
-        <v>71.599999999999994</v>
-      </c>
-      <c r="AA35" s="75" cm="1">
-        <f t="array" ref="AA35:AA40" xml:space="preserve"> _xlfn.UNIQUE(I35:I40)</f>
-        <v>81.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="158"/>
-      <c r="B36" s="161"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="22">
-        <v>100</v>
-      </c>
-      <c r="F36" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="22">
-        <v>73.5</v>
-      </c>
-      <c r="H36" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="22">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="J36" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="149">
-        <f t="shared" ref="L36:L37" si="30" xml:space="preserve"> E36 / E39</f>
-        <v>1</v>
-      </c>
-      <c r="M36" s="149">
-        <f t="shared" ref="M36:M37" si="31" xml:space="preserve"> G36 / G39</f>
-        <v>1.2148760330578512</v>
-      </c>
-      <c r="N36" s="149">
-        <f t="shared" ref="N36:N37" si="32" xml:space="preserve"> I36 / I39</f>
-        <v>1.2090225563909776</v>
-      </c>
-      <c r="O36" s="12"/>
-      <c r="P36" s="42">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="Q36" s="43">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="R36" s="44">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="Y36" s="76">
-        <v>100</v>
-      </c>
-      <c r="Z36" s="76">
-        <v>73.5</v>
-      </c>
-      <c r="AA36" s="77">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="158"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="125" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="26">
-        <v>96</v>
-      </c>
-      <c r="F37" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="26">
-        <v>71.2</v>
-      </c>
-      <c r="H37" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="26">
-        <v>78</v>
-      </c>
-      <c r="J37" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="149">
+      <c r="K43" s="9"/>
+      <c r="L43" s="144">
         <f t="shared" si="30"/>
         <v>0.96</v>
       </c>
-      <c r="M37" s="149">
+      <c r="M43" s="144">
         <f t="shared" si="31"/>
         <v>1.2601769911504426</v>
       </c>
-      <c r="N37" s="149">
+      <c r="N43" s="144">
         <f t="shared" si="32"/>
         <v>1.21875</v>
       </c>
-      <c r="O37" s="12"/>
-      <c r="P37" s="45">
-        <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="Q37" s="46">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="R37" s="47">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="Y37" s="76">
-        <v>96</v>
-      </c>
-      <c r="Z37" s="76">
-        <v>71.2</v>
-      </c>
-      <c r="AA37" s="77">
-        <v>78</v>
+      <c r="O43" s="9"/>
+      <c r="P43" s="41" t="e">
+        <f t="shared" ca="1" si="27"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q43" s="42" t="e">
+        <f t="shared" ca="1" si="28"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R43" s="43" t="e">
+        <f t="shared" ca="1" si="29"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y43" s="71" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z43" s="71" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA43" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="158"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="166" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="126" t="s">
+    <row r="44" spans="1:27" ht="15" customHeight="1">
+      <c r="A44" s="162"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="24">
+        <v>98</v>
+      </c>
+      <c r="F44" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="24">
+        <v>64.3</v>
+      </c>
+      <c r="H44" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="24">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="J44" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="145">
+        <f xml:space="preserve"> AVERAGE(L41:L43)</f>
+        <v>0.97442176870748298</v>
+      </c>
+      <c r="M44" s="145">
+        <f t="shared" ref="M44" si="33" xml:space="preserve"> AVERAGE(M41:M43)</f>
+        <v>1.1961944502674613</v>
+      </c>
+      <c r="N44" s="145">
+        <f t="shared" ref="N44" si="34" xml:space="preserve"> AVERAGE(N41:N43)</f>
+        <v>1.1922861170154642</v>
+      </c>
+      <c r="O44" s="9"/>
+      <c r="P44" s="20" t="e">
+        <f t="shared" ca="1" si="27"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q44" s="21" t="e">
+        <f t="shared" ca="1" si="28"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R44" s="22" t="e">
+        <f t="shared" ca="1" si="29"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y44" s="71" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Z44" s="71" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA44" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="15" customHeight="1">
+      <c r="A45" s="162"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="27">
-        <v>98</v>
-      </c>
-      <c r="F38" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="27">
-        <v>64.3</v>
-      </c>
-      <c r="H38" s="106" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="27">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="J38" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="150">
-        <f xml:space="preserve"> AVERAGE(L35:L37)</f>
-        <v>0.97442176870748298</v>
-      </c>
-      <c r="M38" s="150">
-        <f t="shared" ref="M38" si="33" xml:space="preserve"> AVERAGE(M35:M37)</f>
-        <v>1.1961944502674613</v>
-      </c>
-      <c r="N38" s="150">
-        <f t="shared" ref="N38" si="34" xml:space="preserve"> AVERAGE(N35:N37)</f>
-        <v>1.1922861170154642</v>
-      </c>
-      <c r="O38" s="12"/>
-      <c r="P38" s="23">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="Q38" s="24">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="R38" s="25">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="Y38" s="76">
-        <v>98</v>
-      </c>
-      <c r="Z38" s="76">
-        <v>64.3</v>
-      </c>
-      <c r="AA38" s="77">
-        <v>71.099999999999994</v>
+      <c r="E45" s="19">
+        <v>100</v>
+      </c>
+      <c r="F45" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="19">
+        <v>60.5</v>
+      </c>
+      <c r="H45" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="19">
+        <v>66.5</v>
+      </c>
+      <c r="J45" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="143"/>
+      <c r="M45" s="143"/>
+      <c r="N45" s="143"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="20" t="e">
+        <f t="shared" ca="1" si="27"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q45" s="21" t="e">
+        <f t="shared" ca="1" si="28"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R45" s="22" t="e">
+        <f t="shared" ca="1" si="29"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA45" s="72" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="158"/>
-      <c r="B39" s="161"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="124" t="s">
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A46" s="163"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="172"/>
+      <c r="D46" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E46" s="25">
         <v>100</v>
       </c>
-      <c r="F39" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="22">
-        <v>60.5</v>
-      </c>
-      <c r="H39" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="22">
-        <v>66.5</v>
-      </c>
-      <c r="J39" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="148"/>
-      <c r="N39" s="148"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="23">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="Q39" s="24">
-        <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-      <c r="R39" s="25">
-        <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="Y39" s="76"/>
-      <c r="Z39" s="76">
-        <v>60.5</v>
-      </c>
-      <c r="AA39" s="77">
-        <v>66.5</v>
+      <c r="F46" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="25">
+        <v>56.5</v>
+      </c>
+      <c r="H46" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="25">
+        <v>64</v>
+      </c>
+      <c r="J46" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="143"/>
+      <c r="M46" s="143"/>
+      <c r="N46" s="143"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="26" t="e">
+        <f t="shared" ca="1" si="27"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q46" s="27" t="e">
+        <f t="shared" ca="1" si="28"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R46" s="28" t="e">
+        <f t="shared" ca="1" si="29"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AA46" s="74" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="159"/>
-      <c r="B40" s="162"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="28">
-        <v>100</v>
-      </c>
-      <c r="F40" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="28">
-        <v>56.5</v>
-      </c>
-      <c r="H40" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="28">
-        <v>64</v>
-      </c>
-      <c r="J40" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" s="12"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="148"/>
-      <c r="N40" s="148"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="29">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="Q40" s="30">
-        <f t="shared" si="28"/>
-        <v>6</v>
-      </c>
-      <c r="R40" s="31">
-        <f t="shared" si="29"/>
-        <v>6</v>
-      </c>
-      <c r="Y40" s="78"/>
-      <c r="Z40" s="78">
-        <v>56.5</v>
-      </c>
-      <c r="AA40" s="79">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41"/>
-      <c r="F41"/>
-      <c r="H41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
-      <c r="N41" s="148"/>
-      <c r="O41"/>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1">
+      <c r="D47"/>
+      <c r="F47"/>
+      <c r="H47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47" s="143"/>
+      <c r="M47" s="143"/>
+      <c r="N47" s="143"/>
+      <c r="O47"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AC3:AC7"/>
-    <mergeCell ref="AC8:AC12"/>
+    <mergeCell ref="AL3:AL7"/>
+    <mergeCell ref="AL8:AL12"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="C27:C29"/>
@@ -7034,10 +7556,10 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="A21:A26"/>

--- a/reports/Rapport.xlsx
+++ b/reports/Rapport.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\W\DataScientest\mar24_cds_eeg\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\W\DST\mar24_cds_eeg\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01887CBD-DA0A-4216-BA39-819DA4885466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Test_Score_Train">Feuil1!$G$3:$G$5,Feuil1!$G$9:$G$11,Feuil1!$G$15:$G$17,Feuil1!$G$21:$G$23,Feuil1!$G$27:$G$29</definedName>
+    <definedName name="Test_Score_Train">Feuil1!$F$3:$F$5,Feuil1!$F$9:$F$11,Feuil1!$F$15:$F$17,Feuil1!$F$21:$F$23,Feuil1!$F$27:$F$29</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="42">
   <si>
     <t>Train</t>
   </si>
@@ -84,15 +85,6 @@
   </si>
   <si>
     <t>Méthode</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>EEG</t>
-  </si>
-  <si>
-    <t>Concatenate</t>
   </si>
   <si>
     <t>Bande Pass Filter Delta
@@ -161,11 +153,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>EEG
-+
-ECG</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -198,15 +185,25 @@
   <si>
     <t>max_test_score</t>
   </si>
+  <si>
+    <t>Concatenate
+EEG
++
+ECG</t>
+  </si>
+  <si>
+    <t>Concatenate
+C3, C4 et Cz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,9 +295,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -318,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -982,48 +980,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1032,9 +993,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1376,20 +1334,11 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1403,6 +1352,46 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1412,33 +1401,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,48 +1425,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1508,6 +1435,12 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
@@ -1528,7 +1461,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1567,7 +1500,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1608,7 +1540,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$AN$2</c:f>
+              <c:f>Feuil1!$AD$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1644,7 +1576,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$AN$3:$AN$7</c:f>
+              <c:f>Feuil1!$AD$3:$AD$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1667,7 +1599,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-9C01-438D-880D-D9D0F95671B5}"/>
             </c:ext>
@@ -1678,7 +1610,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$AQ$2</c:f>
+              <c:f>Feuil1!$AG$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1714,7 +1646,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$AQ$3:$AQ$7</c:f>
+              <c:f>Feuil1!$AG$3:$AG$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1737,7 +1669,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-9C01-438D-880D-D9D0F95671B5}"/>
             </c:ext>
@@ -1748,7 +1680,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$AT$2</c:f>
+              <c:f>Feuil1!$AJ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1784,7 +1716,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$AT$3:$AT$7</c:f>
+              <c:f>Feuil1!$AJ$3:$AJ$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1807,7 +1739,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-9C01-438D-880D-D9D0F95671B5}"/>
             </c:ext>
@@ -1986,14 +1918,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2029,7 +1961,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -2068,7 +2000,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2109,7 +2040,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$AN$2</c:f>
+              <c:f>Feuil1!$AD$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2145,7 +2076,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$AN$8:$AN$12</c:f>
+              <c:f>Feuil1!$AD$8:$AD$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2168,7 +2099,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8764-4C78-A7F5-6F0E0F3F0366}"/>
             </c:ext>
@@ -2179,7 +2110,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$AQ$2</c:f>
+              <c:f>Feuil1!$AG$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2215,7 +2146,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$AQ$8:$AQ$12</c:f>
+              <c:f>Feuil1!$AG$8:$AG$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2238,7 +2169,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8764-4C78-A7F5-6F0E0F3F0366}"/>
             </c:ext>
@@ -2249,7 +2180,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$AT$2</c:f>
+              <c:f>Feuil1!$AJ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2285,7 +2216,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$AT$8:$AT$12</c:f>
+              <c:f>Feuil1!$AJ$8:$AJ$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2308,7 +2239,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8764-4C78-A7F5-6F0E0F3F0366}"/>
             </c:ext>
@@ -2487,14 +2418,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3655,23 +3586,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>403274</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>31162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377CA7F0-5917-D700-4DF3-F023FFC7A593}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377CA7F0-5917-D700-4DF3-F023FFC7A593}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3691,23 +3622,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>403274</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279635FE-3390-E526-9012-D91AC81C800B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279635FE-3390-E526-9012-D91AC81C800B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4044,3526 +3975,3054 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="8"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="8"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="8"/>
-    <col min="11" max="11" width="2.75" style="8" customWidth="1"/>
-    <col min="12" max="14" width="5.75" customWidth="1"/>
-    <col min="15" max="15" width="2.75" style="8" customWidth="1"/>
-    <col min="16" max="18" width="6" customWidth="1"/>
-    <col min="19" max="20" width="2.75" customWidth="1"/>
-    <col min="21" max="23" width="3.75" customWidth="1"/>
-    <col min="24" max="24" width="2.75" customWidth="1"/>
-    <col min="25" max="36" width="6.75" customWidth="1"/>
-    <col min="37" max="37" width="2.75" customWidth="1"/>
-    <col min="38" max="38" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="47" width="6.75" customWidth="1"/>
-    <col min="48" max="51" width="7.75" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="7"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="7"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="7"/>
+    <col min="10" max="10" width="2.7109375" style="7" customWidth="1"/>
+    <col min="11" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="7" customWidth="1"/>
+    <col min="15" max="17" width="6" customWidth="1"/>
+    <col min="18" max="19" width="2.7109375" customWidth="1"/>
+    <col min="20" max="22" width="3.7109375" customWidth="1"/>
+    <col min="23" max="23" width="2.7109375" customWidth="1"/>
+    <col min="24" max="26" width="6.7109375" customWidth="1"/>
+    <col min="27" max="27" width="2.7109375" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="37" width="6.7109375" customWidth="1"/>
+    <col min="38" max="41" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15" thickBot="1"/>
-    <row r="2" spans="1:47" ht="15.75" thickBot="1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="152" t="s">
+      <c r="B2" s="148" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="152" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="153" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="152" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="153" t="s">
+      <c r="D2" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="152" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="154" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="7"/>
+      <c r="G2" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="148" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="92"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="91"/>
+      <c r="T2" s="74" t="s">
+        <v>28</v>
+      </c>
       <c r="U2" s="75" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V2" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="165" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10">
+        <v>90.3</v>
+      </c>
+      <c r="E3" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="177">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G3" s="132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10">
+        <v>72.2</v>
+      </c>
+      <c r="I3" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="143">
+        <f xml:space="preserve"> D3 / D6</f>
+        <v>0.97939262472885025</v>
+      </c>
+      <c r="L3" s="143">
+        <f xml:space="preserve"> F3 / F6</f>
+        <v>1.0921875000000001</v>
+      </c>
+      <c r="M3" s="143">
+        <f xml:space="preserve"> H3 / H6</f>
+        <v>1.1039755351681957</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="80">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D3, X$3:X$30, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="P3" s="81">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F3, Y$3:Y$30, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="Q3" s="82">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H3, Z$3:Z$30, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="S3" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="122">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D3, AC$3:AC$7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="U3" s="88">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F3, AD$3:AD$7, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="89">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H3, AE$3:AE$7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="X3" s="43" cm="1">
+        <f t="array" ref="X3:X30" xml:space="preserve"> _xlfn.UNIQUE(D3:D32)</f>
+        <v>90.3</v>
+      </c>
+      <c r="Y3" s="33" cm="1">
+        <f t="array" ref="Y3:Y26" xml:space="preserve"> _xlfn.UNIQUE(F3:F32)</f>
+        <v>69.900000000000006</v>
+      </c>
+      <c r="Z3" s="44" cm="1">
+        <f t="array" ref="Z3:Z30" xml:space="preserve"> _xlfn.UNIQUE(H3:H32)</f>
+        <v>72.2</v>
+      </c>
+      <c r="AB3" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="54">
+        <v>90.3</v>
+      </c>
+      <c r="AD3" s="55">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="AE3" s="56">
+        <v>72.2</v>
+      </c>
+      <c r="AF3" s="54">
+        <v>88.4</v>
+      </c>
+      <c r="AG3" s="55">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="AH3" s="56">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AI3" s="54">
+        <v>85.8</v>
+      </c>
+      <c r="AJ3" s="55">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AK3" s="56">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="166"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11">
+        <v>88.4</v>
+      </c>
+      <c r="E4" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="178">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G4" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="11">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="I4" s="138" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="143">
+        <f t="shared" ref="K4:K5" si="0" xml:space="preserve"> D4 / D7</f>
+        <v>0.88488488488488493</v>
+      </c>
+      <c r="L4" s="143">
+        <f t="shared" ref="L4:L5" si="1" xml:space="preserve"> F4 / F7</f>
+        <v>1.1082390953150241</v>
+      </c>
+      <c r="M4" s="143">
+        <f t="shared" ref="M4:M5" si="2" xml:space="preserve"> H4 / H7</f>
+        <v>1.1055999999999999</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="83">
+        <f t="shared" ref="O4:O32" si="3" xml:space="preserve"> _xlfn.RANK.EQ(D4, X$3:X$30, 0)</f>
+        <v>9</v>
+      </c>
+      <c r="P4" s="84">
+        <f t="shared" ref="P4:P32" si="4" xml:space="preserve"> _xlfn.RANK.EQ(F4, Y$3:Y$30, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="Q4" s="30">
+        <f t="shared" ref="Q4:Q32" si="5" xml:space="preserve"> _xlfn.RANK.EQ(H4, Z$3:Z$30, 0)</f>
+        <v>10</v>
+      </c>
+      <c r="S4" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="185"/>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="185"/>
-      <c r="AJ2" s="185"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="32" t="s">
+      <c r="T4" s="123">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D4, AF$3:AF$7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="U4" s="48">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F4, AG$3:AG$7, 0)</f>
         <v>4</v>
       </c>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="33" t="s">
+      <c r="V4" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H4, AH$3:AH$7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="X4" s="43">
+        <v>88.4</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="Z4" s="44">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AB4" s="154"/>
+      <c r="AC4" s="57">
+        <v>94.4</v>
+      </c>
+      <c r="AD4" s="58">
+        <v>69.2</v>
+      </c>
+      <c r="AE4" s="59">
+        <v>71.3</v>
+      </c>
+      <c r="AF4" s="57">
+        <v>100</v>
+      </c>
+      <c r="AG4" s="58">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AH4" s="59">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AI4" s="57">
+        <v>100</v>
+      </c>
+      <c r="AJ4" s="58">
+        <v>62.6</v>
+      </c>
+      <c r="AK4" s="59">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="166"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="2"/>
-    </row>
-    <row r="3" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A3" s="155" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="158" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="11">
-        <v>90.3</v>
-      </c>
-      <c r="F3" s="133" t="s">
+      <c r="D5" s="12">
+        <v>85.8</v>
+      </c>
+      <c r="E5" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="179">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G5" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="12">
+        <v>68</v>
+      </c>
+      <c r="I5" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="189">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="11">
-        <v>72.2</v>
-      </c>
-      <c r="J3" s="138" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="144">
-        <f xml:space="preserve"> E3 / E6</f>
-        <v>0.97939262472885025</v>
-      </c>
-      <c r="M3" s="144">
-        <f xml:space="preserve"> G3 / G6</f>
-        <v>1.0921875000000001</v>
-      </c>
-      <c r="N3" s="144">
-        <f xml:space="preserve"> I3 / I6</f>
-        <v>1.1039755351681957</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="81" t="e">
-        <f ca="1" xml:space="preserve"> _xlfn.RANK.EQ(E3, Y$3:Y$30, 0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q3" s="82" t="e">
-        <f ca="1" xml:space="preserve"> _xlfn.RANK.EQ(G3, Z$3:Z$30, 0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R3" s="83" t="e">
-        <f ca="1" xml:space="preserve"> _xlfn.RANK.EQ(I3, AA$3:AA$30, 0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T3" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="123">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E3, AM$3:AM$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="V3" s="89">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G3, AN$3:AN$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="W3" s="90">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I3, AO$3:AO$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="Y3" s="44" t="e" cm="1">
-        <f t="array" aca="1" ref="Y3:Y30" ca="1" xml:space="preserve"> _xlfn.UNIQUE(E3:E32)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z3" s="34" t="e" cm="1">
-        <f t="array" aca="1" ref="Z3:Z26" ca="1" xml:space="preserve"> _xlfn.UNIQUE(G3:G32)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA3" s="45" t="e" cm="1">
-        <f t="array" aca="1" ref="AA3:AA30" ca="1" xml:space="preserve"> _xlfn.UNIQUE(I3:I32)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB3" s="186"/>
-      <c r="AC3" s="185"/>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="186"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="186"/>
-      <c r="AH3" s="186"/>
-      <c r="AI3" s="186"/>
-      <c r="AJ3" s="186"/>
-      <c r="AL3" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="55">
-        <v>90.3</v>
-      </c>
-      <c r="AN3" s="56">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="AO3" s="57">
-        <v>72.2</v>
-      </c>
-      <c r="AP3" s="55">
-        <v>88.4</v>
-      </c>
-      <c r="AQ3" s="56">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="AR3" s="57">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="AS3" s="55">
-        <v>85.8</v>
-      </c>
-      <c r="AT3" s="56">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="AU3" s="57">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A4" s="156"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="12">
-        <v>88.4</v>
-      </c>
-      <c r="F4" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="190">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="H4" s="134" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="12">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="J4" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="144">
-        <f t="shared" ref="L4:L5" si="0" xml:space="preserve"> E4 / E7</f>
-        <v>0.88488488488488493</v>
-      </c>
-      <c r="M4" s="144">
-        <f t="shared" ref="M4:M5" si="1" xml:space="preserve"> G4 / G7</f>
-        <v>1.1082390953150241</v>
-      </c>
-      <c r="N4" s="144">
-        <f t="shared" ref="N4:N5" si="2" xml:space="preserve"> I4 / I7</f>
-        <v>1.1055999999999999</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="84" t="e">
-        <f t="shared" ref="P4:P32" ca="1" si="3" xml:space="preserve"> _xlfn.RANK.EQ(E4, Y$3:Y$30, 0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q4" s="85" t="e">
-        <f t="shared" ref="Q4:Q32" ca="1" si="4" xml:space="preserve"> _xlfn.RANK.EQ(G4, Z$3:Z$30, 0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R4" s="31" t="e">
-        <f t="shared" ref="R4:R32" ca="1" si="5" xml:space="preserve"> _xlfn.RANK.EQ(I4, AA$3:AA$30, 0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T4" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="124">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E4, AP$3:AP$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="V4" s="49">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G4, AQ$3:AQ$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="W4" s="50">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I4, AR$3:AR$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="Y4" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z4" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA4" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB4" s="186"/>
-      <c r="AC4" s="185"/>
-      <c r="AD4" s="185"/>
-      <c r="AF4" s="186"/>
-      <c r="AG4" s="186"/>
-      <c r="AH4" s="186"/>
-      <c r="AI4" s="186"/>
-      <c r="AJ4" s="186"/>
-      <c r="AL4" s="183"/>
-      <c r="AM4" s="58">
-        <v>94.4</v>
-      </c>
-      <c r="AN4" s="59">
-        <v>69.2</v>
-      </c>
-      <c r="AO4" s="60">
-        <v>71.3</v>
-      </c>
-      <c r="AP4" s="58">
-        <v>100</v>
-      </c>
-      <c r="AQ4" s="59">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="AR4" s="60">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="AS4" s="58">
-        <v>100</v>
-      </c>
-      <c r="AT4" s="59">
-        <v>62.6</v>
-      </c>
-      <c r="AU4" s="60">
-        <v>62.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A5" s="156"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13">
-        <v>85.8</v>
-      </c>
-      <c r="F5" s="135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="191">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="H5" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="13">
-        <v>68</v>
-      </c>
-      <c r="J5" s="140" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="144">
+      <c r="J5" s="8"/>
+      <c r="K5" s="143">
         <f t="shared" si="0"/>
         <v>0.88453608247422677</v>
       </c>
-      <c r="M5" s="144">
+      <c r="L5" s="143">
         <f t="shared" si="1"/>
         <v>1.0941558441558443</v>
       </c>
-      <c r="N5" s="144">
+      <c r="M5" s="143">
         <f t="shared" si="2"/>
         <v>1.0985460420032311</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="107" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q5" s="108" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R5" s="109" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T5" s="131" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="125">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E5, AS$3:AS$7, 0)</f>
+      <c r="N5" s="8"/>
+      <c r="O5" s="106">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P5" s="107">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Q5" s="108">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="S5" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="124">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D5, AI$3:AI$7, 0)</f>
         <v>2</v>
       </c>
+      <c r="U5" s="102">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F5, AJ$3:AJ$7, 0)</f>
+        <v>4</v>
+      </c>
       <c r="V5" s="103">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G5, AT$3:AT$7, 0)</f>
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H5, AK$3:AK$7, 0)</f>
         <v>4</v>
       </c>
-      <c r="W5" s="104">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I5, AU$3:AU$7, 0)</f>
+      <c r="X5" s="43">
+        <v>85.8</v>
+      </c>
+      <c r="Y5" s="33">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="Z5" s="44">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="154"/>
+      <c r="AC5" s="57">
+        <v>74</v>
+      </c>
+      <c r="AD5" s="58">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="AE5" s="59">
+        <v>72.5</v>
+      </c>
+      <c r="AF5" s="57">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AG5" s="58">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="AH5" s="59">
+        <v>72.5</v>
+      </c>
+      <c r="AI5" s="57">
+        <v>69.5</v>
+      </c>
+      <c r="AJ5" s="58">
+        <v>71.5</v>
+      </c>
+      <c r="AK5" s="59">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="166"/>
+      <c r="B6" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z5" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA5" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="185"/>
-      <c r="AD5" s="185"/>
-      <c r="AF5" s="186"/>
-      <c r="AG5" s="186"/>
-      <c r="AH5" s="186"/>
-      <c r="AI5" s="186"/>
-      <c r="AJ5" s="186"/>
-      <c r="AL5" s="183"/>
-      <c r="AM5" s="58">
-        <v>74</v>
-      </c>
-      <c r="AN5" s="59">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="AO5" s="60">
-        <v>72.5</v>
-      </c>
-      <c r="AP5" s="58">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="AQ5" s="59">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="AR5" s="60">
-        <v>72.5</v>
-      </c>
-      <c r="AS5" s="58">
-        <v>69.5</v>
-      </c>
-      <c r="AT5" s="59">
-        <v>71.5</v>
-      </c>
-      <c r="AU5" s="60">
-        <v>72.099999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A6" s="156"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="176" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="116" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="13">
         <v>92.2</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="E6" s="135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="180">
+        <v>64</v>
+      </c>
+      <c r="G6" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="14">
-        <v>64</v>
-      </c>
-      <c r="H6" s="136" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="H6" s="13">
         <v>65.400000000000006</v>
       </c>
-      <c r="J6" s="141" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="145">
-        <f xml:space="preserve"> AVERAGE(L3:L5)</f>
+      <c r="I6" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="144">
+        <f xml:space="preserve"> AVERAGE(K3:K5)</f>
         <v>0.91627119736265394</v>
       </c>
-      <c r="M6" s="145">
-        <f t="shared" ref="M6:N6" si="6" xml:space="preserve"> AVERAGE(M3:M5)</f>
+      <c r="L6" s="144">
+        <f t="shared" ref="L6:M6" si="6" xml:space="preserve"> AVERAGE(L3:L5)</f>
         <v>1.0981941464902896</v>
       </c>
-      <c r="N6" s="145">
+      <c r="M6" s="144">
         <f t="shared" si="6"/>
         <v>1.1027071923904757</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="110" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q6" s="111" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R6" s="112" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T6" s="132" t="s">
+      <c r="N6" s="8"/>
+      <c r="O6" s="109">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="P6" s="110">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Q6" s="111">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="S6" s="131" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="128">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D6, AC$8:AC$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="U6" s="104">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F6, AD$8:AD$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="V6" s="105">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H6, AE$8:AE$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="X6" s="43">
+        <v>92.2</v>
+      </c>
+      <c r="Y6" s="33">
+        <v>64</v>
+      </c>
+      <c r="Z6" s="44">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AB6" s="154"/>
+      <c r="AC6" s="57">
+        <v>79.5</v>
+      </c>
+      <c r="AD6" s="58">
+        <v>68.5</v>
+      </c>
+      <c r="AE6" s="59">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AF6" s="57">
+        <v>68.7</v>
+      </c>
+      <c r="AG6" s="58">
+        <v>69.3</v>
+      </c>
+      <c r="AH6" s="59">
+        <v>72</v>
+      </c>
+      <c r="AI6" s="57">
+        <v>71.7</v>
+      </c>
+      <c r="AJ6" s="58">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AK6" s="59">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="166"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11">
+        <v>99.9</v>
+      </c>
+      <c r="E7" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="178">
+        <v>61.9</v>
+      </c>
+      <c r="G7" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="11">
+        <v>62.5</v>
+      </c>
+      <c r="I7" s="138" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="83">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P7" s="84">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="Q7" s="30">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="S7" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="63">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D7, AF$8:AF$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="U7" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F7, AG$8:AG$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="V7" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H7, AH$8:AH$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="X7" s="43">
+        <v>99.9</v>
+      </c>
+      <c r="Y7" s="33">
+        <v>61.9</v>
+      </c>
+      <c r="Z7" s="44">
+        <v>62.5</v>
+      </c>
+      <c r="AB7" s="155"/>
+      <c r="AC7" s="60">
+        <v>80.3</v>
+      </c>
+      <c r="AD7" s="61">
+        <v>68.5</v>
+      </c>
+      <c r="AE7" s="62">
+        <v>71</v>
+      </c>
+      <c r="AF7" s="60">
+        <v>69.8</v>
+      </c>
+      <c r="AG7" s="61">
+        <v>69.3</v>
+      </c>
+      <c r="AH7" s="62">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AI7" s="60">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="AJ7" s="61">
+        <v>71.3</v>
+      </c>
+      <c r="AK7" s="62">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="167"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14">
+        <v>97</v>
+      </c>
+      <c r="E8" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="181">
+        <v>61.6</v>
+      </c>
+      <c r="G8" s="136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="14">
+        <v>61.9</v>
+      </c>
+      <c r="I8" s="141" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="85">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P8" s="86">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="Q8" s="87">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="S8" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="129">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E6, AM$8:AM$12, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="V6" s="105">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G6, AN$8:AN$12, 0)</f>
+      <c r="T8" s="129">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D8, AI$8:AI$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="U8" s="52">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F8, AJ$8:AJ$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="V8" s="53">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H8, AK$8:AK$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="X8" s="43">
+        <v>97</v>
+      </c>
+      <c r="Y8" s="33">
+        <v>61.6</v>
+      </c>
+      <c r="Z8" s="44">
+        <v>61.9</v>
+      </c>
+      <c r="AB8" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="54">
+        <v>92.2</v>
+      </c>
+      <c r="AD8" s="55">
+        <v>64</v>
+      </c>
+      <c r="AE8" s="56">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AF8" s="54">
+        <v>99.9</v>
+      </c>
+      <c r="AG8" s="55">
+        <v>61.9</v>
+      </c>
+      <c r="AH8" s="56">
+        <v>62.5</v>
+      </c>
+      <c r="AI8" s="54">
+        <v>97</v>
+      </c>
+      <c r="AJ8" s="55">
+        <v>61.6</v>
+      </c>
+      <c r="AK8" s="56">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="156" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10">
+        <v>94.4</v>
+      </c>
+      <c r="E9" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="177">
+        <v>69.2</v>
+      </c>
+      <c r="G9" s="132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="10">
+        <v>71.3</v>
+      </c>
+      <c r="I9" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="143">
+        <f xml:space="preserve"> D9 / D12</f>
+        <v>1.009625668449198</v>
+      </c>
+      <c r="L9" s="143">
+        <f xml:space="preserve"> F9 / F12</f>
+        <v>1.1179321486268174</v>
+      </c>
+      <c r="M9" s="143">
+        <f xml:space="preserve"> H9 / H12</f>
+        <v>1.1317460317460317</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="80">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P9" s="81">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Q9" s="82">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="S9" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="123">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D9, AC$3:AC$7, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="48">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F9, AD$3:AD$7, 0)</f>
         <v>3</v>
       </c>
-      <c r="W6" s="106">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I6, AO$8:AO$12, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="Y6" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z6" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA6" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB6" s="186"/>
-      <c r="AC6" s="185"/>
-      <c r="AD6" s="185"/>
-      <c r="AE6" s="186"/>
-      <c r="AF6" s="186"/>
-      <c r="AG6" s="186"/>
-      <c r="AH6" s="186"/>
-      <c r="AI6" s="186"/>
-      <c r="AJ6" s="186"/>
-      <c r="AL6" s="183"/>
-      <c r="AM6" s="58">
-        <v>79.5</v>
-      </c>
-      <c r="AN6" s="59">
-        <v>68.5</v>
-      </c>
-      <c r="AO6" s="60">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="AP6" s="58">
-        <v>68.7</v>
-      </c>
-      <c r="AQ6" s="59">
-        <v>69.3</v>
-      </c>
-      <c r="AR6" s="60">
-        <v>72</v>
-      </c>
-      <c r="AS6" s="58">
-        <v>71.7</v>
-      </c>
-      <c r="AT6" s="59">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="AU6" s="60">
-        <v>71.8</v>
+      <c r="V9" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H9, AE$3:AE$7, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="X9" s="43">
+        <v>94.4</v>
+      </c>
+      <c r="Y9" s="33">
+        <v>69.2</v>
+      </c>
+      <c r="Z9" s="44">
+        <v>71.3</v>
+      </c>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="57">
+        <v>93.5</v>
+      </c>
+      <c r="AD9" s="58">
+        <v>61.9</v>
+      </c>
+      <c r="AE9" s="59">
+        <v>63</v>
+      </c>
+      <c r="AF9" s="57">
+        <v>100</v>
+      </c>
+      <c r="AG9" s="58">
+        <v>60</v>
+      </c>
+      <c r="AH9" s="59">
+        <v>60.1</v>
+      </c>
+      <c r="AI9" s="57">
+        <v>96.4</v>
+      </c>
+      <c r="AJ9" s="58">
+        <v>59.9</v>
+      </c>
+      <c r="AK9" s="59">
+        <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="156"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="114" t="s">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="166"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="12">
-        <v>99.9</v>
-      </c>
-      <c r="F7" s="134" t="s">
+      <c r="D10" s="11">
+        <v>100</v>
+      </c>
+      <c r="E10" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="178">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="G10" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="12">
-        <v>61.9</v>
-      </c>
-      <c r="H7" s="134" t="s">
+      <c r="H10" s="11">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="I10" s="138" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="143">
+        <f t="shared" ref="K10:K11" si="7" xml:space="preserve"> D10 / D13</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="143">
+        <f t="shared" ref="L10:L11" si="8" xml:space="preserve"> F10 / F13</f>
+        <v>1.0733333333333335</v>
+      </c>
+      <c r="M10" s="143">
+        <f t="shared" ref="M10:M11" si="9" xml:space="preserve"> H10 / H13</f>
+        <v>1.096505823627288</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="83">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="84">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="Q10" s="30">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="S10" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="123">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D10, AF$3:AF$7, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="48">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F10, AG$3:AG$7, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="V10" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H10, AH$3:AH$7, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="X10" s="43">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="33">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="Z10" s="44">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="57">
+        <v>80.7</v>
+      </c>
+      <c r="AD10" s="58">
+        <v>65.2</v>
+      </c>
+      <c r="AE10" s="59">
+        <v>62.8</v>
+      </c>
+      <c r="AF10" s="57">
+        <v>74.8</v>
+      </c>
+      <c r="AG10" s="58">
+        <v>64.5</v>
+      </c>
+      <c r="AH10" s="59">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="AI10" s="57">
+        <v>76.8</v>
+      </c>
+      <c r="AJ10" s="58">
+        <v>64</v>
+      </c>
+      <c r="AK10" s="59">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="166"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12">
+        <v>100</v>
+      </c>
+      <c r="E11" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="12">
-        <v>62.5</v>
-      </c>
-      <c r="J7" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="84" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q7" s="85" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R7" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T7" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="64">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E7, AP$8:AP$12, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="V7" s="51">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G7, AQ$8:AQ$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="W7" s="52">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I7, AR$8:AR$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="Y7" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z7" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA7" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB7" s="186"/>
-      <c r="AC7" s="185"/>
-      <c r="AD7" s="185"/>
-      <c r="AE7" s="186"/>
-      <c r="AF7" s="186"/>
-      <c r="AG7" s="186"/>
-      <c r="AH7" s="186"/>
-      <c r="AI7" s="186"/>
-      <c r="AJ7" s="186"/>
-      <c r="AL7" s="184"/>
-      <c r="AM7" s="61">
-        <v>80.3</v>
-      </c>
-      <c r="AN7" s="62">
-        <v>68.5</v>
-      </c>
-      <c r="AO7" s="63">
-        <v>71</v>
-      </c>
-      <c r="AP7" s="61">
-        <v>69.8</v>
-      </c>
-      <c r="AQ7" s="62">
-        <v>69.3</v>
-      </c>
-      <c r="AR7" s="63">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="AS7" s="61">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="AT7" s="62">
-        <v>71.3</v>
-      </c>
-      <c r="AU7" s="63">
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="157"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="117" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="15">
-        <v>97</v>
-      </c>
-      <c r="F8" s="137" t="s">
+      <c r="F11" s="179">
+        <v>62.6</v>
+      </c>
+      <c r="G11" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="15">
-        <v>61.6</v>
-      </c>
-      <c r="H8" s="137" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="15">
-        <v>61.9</v>
-      </c>
-      <c r="J8" s="142" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="86" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q8" s="87" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R8" s="88" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T8" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" s="130">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E8, AS$8:AS$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V8" s="53">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G8, AT$8:AT$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="W8" s="54">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I8, AU$8:AU$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="Y8" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z8" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA8" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB8" s="186"/>
-      <c r="AC8" s="186"/>
-      <c r="AD8" s="186"/>
-      <c r="AE8" s="186"/>
-      <c r="AF8" s="186"/>
-      <c r="AG8" s="186"/>
-      <c r="AH8" s="186"/>
-      <c r="AI8" s="186"/>
-      <c r="AJ8" s="186"/>
-      <c r="AL8" s="182" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="55">
-        <v>92.2</v>
-      </c>
-      <c r="AN8" s="56">
-        <v>64</v>
-      </c>
-      <c r="AO8" s="57">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="AP8" s="55">
-        <v>99.9</v>
-      </c>
-      <c r="AQ8" s="56">
-        <v>61.9</v>
-      </c>
-      <c r="AR8" s="57">
-        <v>62.5</v>
-      </c>
-      <c r="AS8" s="55">
-        <v>97</v>
-      </c>
-      <c r="AT8" s="56">
-        <v>61.6</v>
-      </c>
-      <c r="AU8" s="57">
-        <v>61.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" ht="15" customHeight="1">
-      <c r="A9" s="155" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="158" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="11">
-        <v>94.4</v>
-      </c>
-      <c r="F9" s="133" t="s">
+      <c r="H11" s="12">
+        <v>62.2</v>
+      </c>
+      <c r="I11" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="189">
-        <v>69.2</v>
-      </c>
-      <c r="H9" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="11">
-        <v>71.3</v>
-      </c>
-      <c r="J9" s="138" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="144">
-        <f xml:space="preserve"> E9 / E12</f>
-        <v>1.009625668449198</v>
-      </c>
-      <c r="M9" s="144">
-        <f xml:space="preserve"> G9 / G12</f>
-        <v>1.1179321486268174</v>
-      </c>
-      <c r="N9" s="144">
-        <f xml:space="preserve"> I9 / I12</f>
-        <v>1.1317460317460317</v>
-      </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="81" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q9" s="82" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R9" s="83" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T9" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="124">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E9, AM$3:AM$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V9" s="49">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G9, AN$3:AN$7, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="W9" s="50">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I9, AO$3:AO$7, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="Y9" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z9" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA9" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB9" s="186"/>
-      <c r="AC9" s="186"/>
-      <c r="AD9" s="186"/>
-      <c r="AE9" s="186"/>
-      <c r="AF9" s="186"/>
-      <c r="AG9" s="186"/>
-      <c r="AH9" s="186"/>
-      <c r="AI9" s="186"/>
-      <c r="AJ9" s="186"/>
-      <c r="AL9" s="183"/>
-      <c r="AM9" s="58">
-        <v>93.5</v>
-      </c>
-      <c r="AN9" s="59">
-        <v>61.9</v>
-      </c>
-      <c r="AO9" s="60">
-        <v>63</v>
-      </c>
-      <c r="AP9" s="58">
-        <v>100</v>
-      </c>
-      <c r="AQ9" s="59">
-        <v>60</v>
-      </c>
-      <c r="AR9" s="60">
-        <v>60.1</v>
-      </c>
-      <c r="AS9" s="58">
-        <v>96.4</v>
-      </c>
-      <c r="AT9" s="59">
-        <v>59.9</v>
-      </c>
-      <c r="AU9" s="60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" ht="15" customHeight="1">
-      <c r="A10" s="156"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12">
-        <v>100</v>
-      </c>
-      <c r="F10" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="190">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="H10" s="134" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="12">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="J10" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="144">
-        <f t="shared" ref="L10:L11" si="7" xml:space="preserve"> E10 / E13</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="144">
-        <f t="shared" ref="M10:M11" si="8" xml:space="preserve"> G10 / G13</f>
-        <v>1.0733333333333335</v>
-      </c>
-      <c r="N10" s="144">
-        <f t="shared" ref="N10:N11" si="9" xml:space="preserve"> I10 / I13</f>
-        <v>1.096505823627288</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="84" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q10" s="85" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R10" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T10" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" s="124">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E10, AP$3:AP$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V10" s="49">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G10, AQ$3:AQ$7, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="W10" s="50">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I10, AR$3:AR$7, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="Y10" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z10" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA10" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB10" s="186"/>
-      <c r="AC10" s="186"/>
-      <c r="AD10" s="186"/>
-      <c r="AE10" s="186"/>
-      <c r="AF10" s="186"/>
-      <c r="AG10" s="186"/>
-      <c r="AH10" s="186"/>
-      <c r="AI10" s="186"/>
-      <c r="AJ10" s="186"/>
-      <c r="AL10" s="183"/>
-      <c r="AM10" s="58">
-        <v>80.7</v>
-      </c>
-      <c r="AN10" s="59">
-        <v>65.2</v>
-      </c>
-      <c r="AO10" s="60">
-        <v>62.8</v>
-      </c>
-      <c r="AP10" s="58">
-        <v>74.8</v>
-      </c>
-      <c r="AQ10" s="59">
-        <v>64.5</v>
-      </c>
-      <c r="AR10" s="60">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="AS10" s="58">
-        <v>76.8</v>
-      </c>
-      <c r="AT10" s="59">
-        <v>64</v>
-      </c>
-      <c r="AU10" s="60">
-        <v>67.099999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47" ht="15" customHeight="1">
-      <c r="A11" s="156"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="13">
-        <v>100</v>
-      </c>
-      <c r="F11" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="191">
-        <v>62.6</v>
-      </c>
-      <c r="H11" s="135" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="13">
-        <v>62.2</v>
-      </c>
-      <c r="J11" s="140" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="144">
+      <c r="J11" s="8"/>
+      <c r="K11" s="143">
         <f t="shared" si="7"/>
         <v>1.0373443983402488</v>
       </c>
-      <c r="M11" s="144">
+      <c r="L11" s="143">
         <f t="shared" si="8"/>
         <v>1.0450751252086812</v>
       </c>
-      <c r="N11" s="144">
+      <c r="M11" s="143">
         <f t="shared" si="9"/>
         <v>1.0542372881355933</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="107" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q11" s="108" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R11" s="109" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T11" s="131" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11" s="125">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E11, AS$3:AS$7, 0)</f>
+      <c r="N11" s="8"/>
+      <c r="O11" s="106">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="P11" s="107">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="Q11" s="108">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="S11" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="124">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D11, AI$3:AI$7, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="102">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F11, AJ$3:AJ$7, 0)</f>
+        <v>5</v>
+      </c>
       <c r="V11" s="103">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G11, AT$3:AT$7, 0)</f>
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H11, AK$3:AK$7, 0)</f>
         <v>5</v>
       </c>
-      <c r="W11" s="104">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I11, AU$3:AU$7, 0)</f>
+      <c r="X11" s="43">
+        <v>93.5</v>
+      </c>
+      <c r="Y11" s="33">
+        <v>62.6</v>
+      </c>
+      <c r="Z11" s="44">
+        <v>62.2</v>
+      </c>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="57">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AD11" s="58">
+        <v>64.2</v>
+      </c>
+      <c r="AE11" s="59">
+        <v>66.3</v>
+      </c>
+      <c r="AF11" s="57">
+        <v>83.7</v>
+      </c>
+      <c r="AG11" s="58">
+        <v>62.4</v>
+      </c>
+      <c r="AH11" s="59">
+        <v>61.3</v>
+      </c>
+      <c r="AI11" s="57">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AJ11" s="58">
+        <v>64.2</v>
+      </c>
+      <c r="AK11" s="59">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="166"/>
+      <c r="B12" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="13">
+        <v>93.5</v>
+      </c>
+      <c r="E12" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="180">
+        <v>61.9</v>
+      </c>
+      <c r="G12" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="13">
+        <v>63</v>
+      </c>
+      <c r="I12" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="144">
+        <f xml:space="preserve"> AVERAGE(K9:K11)</f>
+        <v>1.0156566889298155</v>
+      </c>
+      <c r="L12" s="144">
+        <f t="shared" ref="L12" si="10" xml:space="preserve"> AVERAGE(L9:L11)</f>
+        <v>1.0787802023896107</v>
+      </c>
+      <c r="M12" s="144">
+        <f t="shared" ref="M12" si="11" xml:space="preserve"> AVERAGE(M9:M11)</f>
+        <v>1.0941630478363045</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="109">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P12" s="110">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="Q12" s="111">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="S12" s="131" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="128">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D12, AC$8:AC$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="104">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F12, AD$8:AD$12, 0)</f>
         <v>5</v>
       </c>
-      <c r="Y11" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z11" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA11" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB11" s="186"/>
-      <c r="AC11" s="186"/>
-      <c r="AD11" s="186"/>
-      <c r="AE11" s="186"/>
-      <c r="AF11" s="186"/>
-      <c r="AG11" s="186"/>
-      <c r="AH11" s="186"/>
-      <c r="AI11" s="186"/>
-      <c r="AJ11" s="186"/>
-      <c r="AL11" s="183"/>
-      <c r="AM11" s="58">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="AN11" s="59">
-        <v>64.2</v>
-      </c>
-      <c r="AO11" s="60">
-        <v>66.3</v>
-      </c>
-      <c r="AP11" s="58">
-        <v>83.7</v>
-      </c>
-      <c r="AQ11" s="59">
-        <v>62.4</v>
-      </c>
-      <c r="AR11" s="60">
-        <v>61.3</v>
-      </c>
-      <c r="AS11" s="58">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="AT11" s="59">
-        <v>64.2</v>
-      </c>
-      <c r="AU11" s="60">
-        <v>64.900000000000006</v>
+      <c r="V12" s="105">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H12, AE$8:AE$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="X12" s="43">
+        <v>96.4</v>
+      </c>
+      <c r="Y12" s="33">
+        <v>60</v>
+      </c>
+      <c r="Z12" s="44">
+        <v>63</v>
+      </c>
+      <c r="AB12" s="155"/>
+      <c r="AC12" s="60">
+        <v>85.6</v>
+      </c>
+      <c r="AD12" s="61">
+        <v>62</v>
+      </c>
+      <c r="AE12" s="62">
+        <v>63.2</v>
+      </c>
+      <c r="AF12" s="60">
+        <v>76</v>
+      </c>
+      <c r="AG12" s="61">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AH12" s="62">
+        <v>66.5</v>
+      </c>
+      <c r="AI12" s="60">
+        <v>79.3</v>
+      </c>
+      <c r="AJ12" s="61">
+        <v>63.3</v>
+      </c>
+      <c r="AK12" s="62">
+        <v>65.7</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="156"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="176" t="s">
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="166"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11">
+        <v>100</v>
+      </c>
+      <c r="E13" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="178">
+        <v>60</v>
+      </c>
+      <c r="G13" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11">
+        <v>60.1</v>
+      </c>
+      <c r="I13" s="138" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="83">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="P13" s="84">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="Q13" s="30">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="S13" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="63">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D13, AF$8:AF$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F13, AG$8:AG$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="V13" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H13, AH$8:AH$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="X13" s="43">
+        <v>74</v>
+      </c>
+      <c r="Y13" s="33">
+        <v>59.9</v>
+      </c>
+      <c r="Z13" s="44">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="167"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14">
+        <v>96.4</v>
+      </c>
+      <c r="E14" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="181">
+        <v>59.9</v>
+      </c>
+      <c r="G14" s="136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="14">
+        <v>59</v>
+      </c>
+      <c r="I14" s="141" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="85">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E12" s="14">
-        <v>93.5</v>
-      </c>
-      <c r="F12" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="14">
-        <v>61.9</v>
-      </c>
-      <c r="H12" s="136" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="14">
-        <v>63</v>
-      </c>
-      <c r="J12" s="141" t="s">
+      <c r="P14" s="86">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="Q14" s="87">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="S14" s="127" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="63">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D14, AI$8:AI$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="U14" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F14, AJ$8:AJ$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="V14" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H14, AK$8:AK$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="X14" s="43">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="Y14" s="33">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="Z14" s="44">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="10">
+        <v>74</v>
+      </c>
+      <c r="E15" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="177">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G15" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="10">
+        <v>72.5</v>
+      </c>
+      <c r="I15" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="143">
+        <f xml:space="preserve"> D15 / D18</f>
+        <v>0.91697645600991318</v>
+      </c>
+      <c r="L15" s="143">
+        <f xml:space="preserve"> F15 / F18</f>
+        <v>1.0644171779141105</v>
+      </c>
+      <c r="M15" s="143">
+        <f xml:space="preserve"> H15 / H18</f>
+        <v>1.1544585987261147</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="80">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="P15" s="81">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q15" s="82">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S15" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="122">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D15, AC$3:AC$7, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="U15" s="88">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F15, AD$3:AD$7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="V15" s="89">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H15, AE$3:AE$7, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="X15" s="43">
+        <v>69.5</v>
+      </c>
+      <c r="Y15" s="33">
+        <v>71.5</v>
+      </c>
+      <c r="Z15" s="44">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="157"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E16" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="145">
-        <f xml:space="preserve"> AVERAGE(L9:L11)</f>
-        <v>1.0156566889298155</v>
-      </c>
-      <c r="M12" s="145">
-        <f t="shared" ref="M12" si="10" xml:space="preserve"> AVERAGE(M9:M11)</f>
-        <v>1.0787802023896107</v>
-      </c>
-      <c r="N12" s="145">
-        <f t="shared" ref="N12" si="11" xml:space="preserve"> AVERAGE(N9:N11)</f>
-        <v>1.0941630478363045</v>
-      </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="110" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q12" s="111" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R12" s="112" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T12" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="U12" s="129">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E12, AM$8:AM$12, 0)</f>
+      <c r="F16" s="178">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G16" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="I16" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="143">
+        <f t="shared" ref="K16:K17" si="12" xml:space="preserve"> D16 / D19</f>
+        <v>0.90775401069518724</v>
+      </c>
+      <c r="L16" s="143">
+        <f t="shared" ref="L16:L17" si="13" xml:space="preserve"> F16 / F19</f>
+        <v>1.0837209302325583</v>
+      </c>
+      <c r="M16" s="143">
+        <f t="shared" ref="M16:M17" si="14" xml:space="preserve"> H16 / H19</f>
+        <v>1.0885885885885886</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="83">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="P16" s="84">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S16" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="123">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D16, AF$3:AF$7, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="U16" s="48">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F16, AG$3:AG$7, 0)</f>
         <v>1</v>
       </c>
-      <c r="V12" s="105">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G12, AN$8:AN$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="W12" s="106">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I12, AO$8:AO$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="Y12" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z12" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA12" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="186"/>
-      <c r="AE12" s="186"/>
-      <c r="AF12" s="186"/>
-      <c r="AG12" s="186"/>
-      <c r="AH12" s="186"/>
-      <c r="AI12" s="186"/>
-      <c r="AJ12" s="186"/>
-      <c r="AL12" s="184"/>
-      <c r="AM12" s="61">
-        <v>85.6</v>
-      </c>
-      <c r="AN12" s="62">
-        <v>62</v>
-      </c>
-      <c r="AO12" s="63">
-        <v>63.2</v>
-      </c>
-      <c r="AP12" s="61">
-        <v>76</v>
-      </c>
-      <c r="AQ12" s="62">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="AR12" s="63">
-        <v>66.5</v>
-      </c>
-      <c r="AS12" s="61">
-        <v>79.3</v>
-      </c>
-      <c r="AT12" s="62">
-        <v>63.3</v>
-      </c>
-      <c r="AU12" s="63">
-        <v>65.7</v>
+      <c r="V16" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H16, AH$3:AH$7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="X16" s="43">
+        <v>80.7</v>
+      </c>
+      <c r="Y16" s="33">
+        <v>65.2</v>
+      </c>
+      <c r="Z16" s="44">
+        <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="15" customHeight="1">
-      <c r="A13" s="156"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="12">
-        <v>100</v>
-      </c>
-      <c r="F13" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="12">
-        <v>60</v>
-      </c>
-      <c r="H13" s="134" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="12">
-        <v>60.1</v>
-      </c>
-      <c r="J13" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="84" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q13" s="85" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R13" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T13" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="64">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E13, AP$8:AP$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="V13" s="51">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G13, AQ$8:AQ$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="W13" s="52">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I13, AR$8:AR$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="Y13" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z13" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA13" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="186"/>
-      <c r="AD13" s="186"/>
-      <c r="AE13" s="186"/>
-      <c r="AF13" s="186"/>
-      <c r="AG13" s="186"/>
-      <c r="AH13" s="186"/>
-      <c r="AI13" s="186"/>
-      <c r="AJ13" s="186"/>
-    </row>
-    <row r="14" spans="1:47" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="157"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="117" t="s">
+    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="157"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="15">
-        <v>96.4</v>
-      </c>
-      <c r="F14" s="137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="15">
-        <v>59.9</v>
-      </c>
-      <c r="H14" s="137" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="15">
-        <v>59</v>
-      </c>
-      <c r="J14" s="142" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="86" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q14" s="87" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R14" s="88" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T14" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="U14" s="64">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E14, AS$8:AS$12, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="V14" s="51">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G14, AT$8:AT$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="W14" s="52">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I14, AU$8:AU$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="Y14" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z14" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA14" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB14" s="186"/>
-      <c r="AC14" s="186"/>
-      <c r="AD14" s="186"/>
-      <c r="AE14" s="186"/>
-      <c r="AF14" s="186"/>
-      <c r="AG14" s="186"/>
-      <c r="AH14" s="186"/>
-      <c r="AI14" s="186"/>
-      <c r="AJ14" s="186"/>
-    </row>
-    <row r="15" spans="1:47" ht="15" customHeight="1">
-      <c r="A15" s="179" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="158" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11">
-        <v>74</v>
-      </c>
-      <c r="F15" s="133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="189">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="H15" s="133" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="11">
-        <v>72.5</v>
-      </c>
-      <c r="J15" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="144">
-        <f xml:space="preserve"> E15 / E18</f>
-        <v>0.91697645600991318</v>
-      </c>
-      <c r="M15" s="144">
-        <f xml:space="preserve"> G15 / G18</f>
-        <v>1.0644171779141105</v>
-      </c>
-      <c r="N15" s="144">
-        <f xml:space="preserve"> I15 / I18</f>
-        <v>1.1544585987261147</v>
-      </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="81" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q15" s="82" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R15" s="83" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T15" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="U15" s="123">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E15, AM$3:AM$7, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="V15" s="89">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G15, AN$3:AN$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="W15" s="90">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I15, AO$3:AO$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y15" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z15" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA15" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB15" s="186"/>
-      <c r="AC15" s="186"/>
-      <c r="AD15" s="186"/>
-      <c r="AE15" s="186"/>
-      <c r="AF15" s="186"/>
-      <c r="AG15" s="186"/>
-      <c r="AH15" s="186"/>
-      <c r="AI15" s="186"/>
-      <c r="AJ15" s="186"/>
-    </row>
-    <row r="16" spans="1:47" ht="15" customHeight="1">
-      <c r="A16" s="180"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="12">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="F16" s="134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="190">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="H16" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="12">
-        <v>72.5</v>
-      </c>
-      <c r="J16" s="139" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="144">
-        <f t="shared" ref="L16:L17" si="12" xml:space="preserve"> E16 / E19</f>
-        <v>0.90775401069518724</v>
-      </c>
-      <c r="M16" s="144">
-        <f t="shared" ref="M16:M17" si="13" xml:space="preserve"> G16 / G19</f>
-        <v>1.0837209302325583</v>
-      </c>
-      <c r="N16" s="144">
-        <f t="shared" ref="N16:N17" si="14" xml:space="preserve"> I16 / I19</f>
-        <v>1.0885885885885886</v>
-      </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="84" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q16" s="85" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R16" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T16" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" s="124">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E16, AP$3:AP$7, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="V16" s="49">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G16, AQ$3:AQ$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="W16" s="50">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I16, AR$3:AR$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="Y16" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z16" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA16" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB16" s="186"/>
-      <c r="AC16" s="186"/>
-      <c r="AD16" s="186"/>
-      <c r="AE16" s="186"/>
-      <c r="AF16" s="186"/>
-      <c r="AG16" s="186"/>
-      <c r="AH16" s="186"/>
-      <c r="AI16" s="186"/>
-      <c r="AJ16" s="186"/>
-    </row>
-    <row r="17" spans="1:36" ht="15" customHeight="1">
-      <c r="A17" s="180"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="12">
         <v>69.5</v>
       </c>
-      <c r="F17" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="191">
+      <c r="E17" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="179">
         <v>71.5</v>
       </c>
-      <c r="H17" s="135" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="G17" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="12">
         <v>72.099999999999994</v>
       </c>
-      <c r="J17" s="140" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="144">
+      <c r="I17" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="143">
         <f t="shared" si="12"/>
         <v>0.90494791666666674</v>
       </c>
-      <c r="M17" s="144">
+      <c r="L17" s="143">
         <f t="shared" si="13"/>
         <v>1.1171875</v>
       </c>
-      <c r="N17" s="144">
+      <c r="M17" s="143">
         <f t="shared" si="14"/>
         <v>1.07451564828614</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="107" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q17" s="108" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R17" s="109" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T17" s="131" t="s">
-        <v>34</v>
-      </c>
-      <c r="U17" s="125">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E17, AS$3:AS$7, 0)</f>
+      <c r="N17" s="8"/>
+      <c r="O17" s="106">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="P17" s="107">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="108">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S17" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="124">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D17, AI$3:AI$7, 0)</f>
         <v>5</v>
       </c>
+      <c r="U17" s="102">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F17, AJ$3:AJ$7, 0)</f>
+        <v>1</v>
+      </c>
       <c r="V17" s="103">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G17, AT$3:AT$7, 0)</f>
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H17, AK$3:AK$7, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="X17" s="43">
+        <v>74.8</v>
+      </c>
+      <c r="Y17" s="33">
+        <v>64.5</v>
+      </c>
+      <c r="Z17" s="44">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="157"/>
+      <c r="B18" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="W17" s="104">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I17, AU$3:AU$7, 0)</f>
+      <c r="C18" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="13">
+        <v>80.7</v>
+      </c>
+      <c r="E18" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="180">
+        <v>65.2</v>
+      </c>
+      <c r="G18" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="13">
+        <v>62.8</v>
+      </c>
+      <c r="I18" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="144">
+        <f xml:space="preserve"> AVERAGE(K15:K17)</f>
+        <v>0.90989279445725568</v>
+      </c>
+      <c r="L18" s="144">
+        <f t="shared" ref="L18" si="15" xml:space="preserve"> AVERAGE(L15:L17)</f>
+        <v>1.0884418693822229</v>
+      </c>
+      <c r="M18" s="144">
+        <f t="shared" ref="M18" si="16" xml:space="preserve"> AVERAGE(M15:M17)</f>
+        <v>1.1058542785336145</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="109">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="P18" s="110">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="Q18" s="111">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="S18" s="131" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="128">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D18, AC$8:AC$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="U18" s="104">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F18, AD$8:AD$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="V18" s="105">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H18, AE$8:AE$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="X18" s="43">
+        <v>76.8</v>
+      </c>
+      <c r="Y18" s="33">
+        <v>68.5</v>
+      </c>
+      <c r="Z18" s="44">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="157"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11">
+        <v>74.8</v>
+      </c>
+      <c r="E19" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="178">
+        <v>64.5</v>
+      </c>
+      <c r="G19" s="133" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="11">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="I19" s="138" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="83">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="P19" s="84">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="Q19" s="30">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="S19" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="63">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D19, AF$8:AF$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="U19" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F19, AG$8:AG$12, 0)</f>
         <v>2</v>
       </c>
-      <c r="Y17" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z17" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA17" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB17" s="186"/>
-      <c r="AC17" s="186"/>
-      <c r="AD17" s="186"/>
-      <c r="AE17" s="186"/>
-      <c r="AF17" s="186"/>
-      <c r="AG17" s="186"/>
-      <c r="AH17" s="186"/>
-      <c r="AI17" s="186"/>
-      <c r="AJ17" s="186"/>
+      <c r="V19" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H19, AH$8:AH$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="X19" s="43">
+        <v>79.5</v>
+      </c>
+      <c r="Y19" s="33">
+        <v>69.3</v>
+      </c>
+      <c r="Z19" s="44">
+        <v>67.099999999999994</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" ht="15" customHeight="1">
-      <c r="A18" s="180"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="176" t="s">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="158"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="14">
+        <v>76.8</v>
+      </c>
+      <c r="E20" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="181">
+        <v>64</v>
+      </c>
+      <c r="G20" s="136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="14">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="I20" s="141" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="85">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P20" s="86">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Q20" s="87">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S20" s="127" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" s="129">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D20, AI$8:AI$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="U20" s="52">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F20, AJ$8:AJ$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="V20" s="53">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H20, AK$8:AK$12, 0)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="116" t="s">
+      <c r="X20" s="43">
+        <v>68.7</v>
+      </c>
+      <c r="Y20" s="33">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="Z20" s="44">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="14">
-        <v>80.7</v>
-      </c>
-      <c r="F18" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="14">
-        <v>65.2</v>
-      </c>
-      <c r="H18" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="14">
-        <v>62.8</v>
-      </c>
-      <c r="J18" s="141" t="s">
+      <c r="D21" s="10">
+        <v>79.5</v>
+      </c>
+      <c r="E21" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="177">
+        <v>68.5</v>
+      </c>
+      <c r="G21" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="10">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="I21" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="143">
+        <f xml:space="preserve"> D21 / D24</f>
+        <v>1.0311284046692608</v>
+      </c>
+      <c r="L21" s="143">
+        <f xml:space="preserve"> F21 / F24</f>
+        <v>1.0669781931464175</v>
+      </c>
+      <c r="M21" s="143">
+        <f xml:space="preserve"> H21 / H24</f>
+        <v>1.057315233785822</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="80">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="145">
-        <f xml:space="preserve"> AVERAGE(L15:L17)</f>
-        <v>0.90989279445725568</v>
-      </c>
-      <c r="M18" s="145">
-        <f t="shared" ref="M18" si="15" xml:space="preserve"> AVERAGE(M15:M17)</f>
-        <v>1.0884418693822229</v>
-      </c>
-      <c r="N18" s="145">
-        <f t="shared" ref="N18" si="16" xml:space="preserve"> AVERAGE(N15:N17)</f>
-        <v>1.1058542785336145</v>
-      </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="110" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q18" s="111" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R18" s="112" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T18" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="U18" s="129">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E18, AM$8:AM$12, 0)</f>
+      <c r="P21" s="81">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="Q21" s="82">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="S21" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="123">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D21, AC$3:AC$7, 0)</f>
         <v>4</v>
       </c>
-      <c r="V18" s="105">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G18, AN$8:AN$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="W18" s="106">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I18, AO$8:AO$12, 0)</f>
+      <c r="U21" s="48">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F21, AD$3:AD$7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="V21" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H21, AE$3:AE$7, 0)</f>
         <v>5</v>
       </c>
-      <c r="Y18" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z18" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA18" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB18" s="186"/>
-      <c r="AC18" s="186"/>
-      <c r="AD18" s="186"/>
-      <c r="AE18" s="186"/>
-      <c r="AF18" s="186"/>
-      <c r="AG18" s="186"/>
-      <c r="AH18" s="186"/>
-      <c r="AI18" s="186"/>
-      <c r="AJ18" s="186"/>
+      <c r="X21" s="43">
+        <v>71.7</v>
+      </c>
+      <c r="Y21" s="33">
+        <v>64.2</v>
+      </c>
+      <c r="Z21" s="44">
+        <v>72</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" ht="15" customHeight="1">
-      <c r="A19" s="180"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="114" t="s">
+    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="157"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="12">
-        <v>74.8</v>
-      </c>
-      <c r="F19" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="12">
-        <v>64.5</v>
-      </c>
-      <c r="H19" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="12">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="J19" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="84" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q19" s="85" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R19" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T19" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="U19" s="64">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E19, AP$8:AP$12, 0)</f>
+      <c r="D22" s="11">
+        <v>68.7</v>
+      </c>
+      <c r="E22" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="178">
+        <v>69.3</v>
+      </c>
+      <c r="G22" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="11">
+        <v>72</v>
+      </c>
+      <c r="I22" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="143">
+        <f t="shared" ref="K22:K23" si="17" xml:space="preserve"> D22 / D25</f>
+        <v>0.82078853046594979</v>
+      </c>
+      <c r="L22" s="143">
+        <f t="shared" ref="L22:L23" si="18" xml:space="preserve"> F22 / F25</f>
+        <v>1.1105769230769231</v>
+      </c>
+      <c r="M22" s="143">
+        <f t="shared" ref="M22:M23" si="19" xml:space="preserve"> H22 / H25</f>
+        <v>1.1745513866231647</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="83">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="P22" s="84">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q22" s="30">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="V19" s="51">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G19, AQ$8:AQ$12, 0)</f>
+      <c r="S22" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="123">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D22, AF$3:AF$7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="U22" s="48">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F22, AG$3:AG$7, 0)</f>
         <v>2</v>
       </c>
-      <c r="W19" s="52">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I19, AR$8:AR$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y19" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z19" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA19" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB19" s="186"/>
-      <c r="AC19" s="186"/>
-      <c r="AD19" s="186"/>
-      <c r="AE19" s="186"/>
-      <c r="AF19" s="186"/>
-      <c r="AG19" s="186"/>
-      <c r="AH19" s="186"/>
-      <c r="AI19" s="186"/>
-      <c r="AJ19" s="186"/>
+      <c r="V22" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H22, AH$3:AH$7, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="X22" s="43">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="Y22" s="33">
+        <v>62.4</v>
+      </c>
+      <c r="Z22" s="44">
+        <v>71.8</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="181"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="117" t="s">
+    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="157"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="15">
-        <v>76.8</v>
-      </c>
-      <c r="F20" s="137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="15">
-        <v>64</v>
-      </c>
-      <c r="H20" s="137" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="15">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="J20" s="142" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="86" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q20" s="87" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R20" s="88" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T20" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="U20" s="130">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E20, AS$8:AS$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="V20" s="53">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G20, AT$8:AT$12, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="W20" s="54">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I20, AU$8:AU$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y20" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z20" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA20" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB20" s="186"/>
-      <c r="AC20" s="186"/>
-      <c r="AD20" s="186"/>
-      <c r="AE20" s="186"/>
-      <c r="AF20" s="186"/>
-      <c r="AG20" s="186"/>
-      <c r="AH20" s="186"/>
-      <c r="AI20" s="186"/>
-      <c r="AJ20" s="186"/>
-    </row>
-    <row r="21" spans="1:36" ht="15" customHeight="1">
-      <c r="A21" s="179" t="s">
+      <c r="D23" s="12">
+        <v>71.7</v>
+      </c>
+      <c r="E23" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="179">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G23" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="158" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="11">
-        <v>79.5</v>
-      </c>
-      <c r="F21" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="189">
-        <v>68.5</v>
-      </c>
-      <c r="H21" s="133" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="11">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="J21" s="138" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="144">
-        <f xml:space="preserve"> E21 / E24</f>
-        <v>1.0311284046692608</v>
-      </c>
-      <c r="M21" s="144">
-        <f xml:space="preserve"> G21 / G24</f>
-        <v>1.0669781931464175</v>
-      </c>
-      <c r="N21" s="144">
-        <f xml:space="preserve"> I21 / I24</f>
-        <v>1.057315233785822</v>
-      </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="81" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q21" s="82" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R21" s="83" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T21" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="U21" s="124">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E21, AM$3:AM$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="V21" s="49">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G21, AN$3:AN$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="W21" s="50">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I21, AO$3:AO$7, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="Y21" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z21" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA21" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB21" s="186"/>
-      <c r="AC21" s="186"/>
-      <c r="AD21" s="186"/>
-      <c r="AE21" s="186"/>
-      <c r="AF21" s="186"/>
-      <c r="AG21" s="186"/>
-      <c r="AH21" s="186"/>
-      <c r="AI21" s="186"/>
-      <c r="AJ21" s="186"/>
-    </row>
-    <row r="22" spans="1:36" ht="15" customHeight="1">
-      <c r="A22" s="180"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="12">
-        <v>68.7</v>
-      </c>
-      <c r="F22" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="190">
-        <v>69.3</v>
-      </c>
-      <c r="H22" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="12">
-        <v>72</v>
-      </c>
-      <c r="J22" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="144">
-        <f t="shared" ref="L22:L23" si="17" xml:space="preserve"> E22 / E25</f>
-        <v>0.82078853046594979</v>
-      </c>
-      <c r="M22" s="144">
-        <f t="shared" ref="M22:M23" si="18" xml:space="preserve"> G22 / G25</f>
-        <v>1.1105769230769231</v>
-      </c>
-      <c r="N22" s="144">
-        <f t="shared" ref="N22:N23" si="19" xml:space="preserve"> I22 / I25</f>
-        <v>1.1745513866231647</v>
-      </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="84" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q22" s="85" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R22" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T22" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22" s="124">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E22, AP$3:AP$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="V22" s="49">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G22, AQ$3:AQ$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="W22" s="50">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I22, AR$3:AR$7, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="Y22" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z22" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA22" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB22" s="186"/>
-      <c r="AC22" s="186"/>
-      <c r="AD22" s="186"/>
-      <c r="AE22" s="186"/>
-      <c r="AF22" s="186"/>
-      <c r="AG22" s="186"/>
-      <c r="AH22" s="186"/>
-      <c r="AI22" s="186"/>
-      <c r="AJ22" s="186"/>
-    </row>
-    <row r="23" spans="1:36" ht="15" customHeight="1">
-      <c r="A23" s="180"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="13">
-        <v>71.7</v>
-      </c>
-      <c r="F23" s="135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="191">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="H23" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="13">
+      <c r="H23" s="12">
         <v>71.8</v>
       </c>
-      <c r="J23" s="140" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="144">
+      <c r="I23" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="143">
         <f t="shared" si="17"/>
         <v>0.88957816377171228</v>
       </c>
-      <c r="M23" s="144">
+      <c r="L23" s="143">
         <f t="shared" si="18"/>
         <v>1.099688473520249</v>
       </c>
-      <c r="N23" s="144">
+      <c r="M23" s="143">
         <f t="shared" si="19"/>
         <v>1.106317411402157</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="107" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q23" s="108" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R23" s="109" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T23" s="131" t="s">
-        <v>34</v>
-      </c>
-      <c r="U23" s="125">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E23, AS$3:AS$7, 0)</f>
+      <c r="N23" s="8"/>
+      <c r="O23" s="106">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="P23" s="107">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q23" s="108">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="S23" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" s="124">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D23, AI$3:AI$7, 0)</f>
         <v>4</v>
       </c>
+      <c r="U23" s="102">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F23, AJ$3:AJ$7, 0)</f>
+        <v>3</v>
+      </c>
       <c r="V23" s="103">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G23, AT$3:AT$7, 0)</f>
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H23, AK$3:AK$7, 0)</f>
         <v>3</v>
       </c>
-      <c r="W23" s="104">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I23, AU$3:AU$7, 0)</f>
+      <c r="X23" s="43">
+        <v>83.7</v>
+      </c>
+      <c r="Y23" s="33">
+        <v>71.3</v>
+      </c>
+      <c r="Z23" s="44">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="157"/>
+      <c r="B24" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="E24" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="180">
+        <v>64.2</v>
+      </c>
+      <c r="G24" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="13">
+        <v>66.3</v>
+      </c>
+      <c r="I24" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="144">
+        <f xml:space="preserve"> AVERAGE(K21:K23)</f>
+        <v>0.91383169963564104</v>
+      </c>
+      <c r="L24" s="144">
+        <f t="shared" ref="L24" si="20" xml:space="preserve"> AVERAGE(L21:L23)</f>
+        <v>1.0924145299145298</v>
+      </c>
+      <c r="M24" s="144">
+        <f t="shared" ref="M24" si="21" xml:space="preserve"> AVERAGE(M21:M23)</f>
+        <v>1.1127280106037145</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="109">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P24" s="110">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="Q24" s="111">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="S24" s="131" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="128">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D24, AC$8:AC$12, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="U24" s="104">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F24, AD$8:AD$12, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="V24" s="105">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H24, AE$8:AE$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="X24" s="43">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="Y24" s="33">
+        <v>62</v>
+      </c>
+      <c r="Z24" s="44">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="157"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11">
+        <v>83.7</v>
+      </c>
+      <c r="E25" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="178">
+        <v>62.4</v>
+      </c>
+      <c r="G25" s="133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="11">
+        <v>61.3</v>
+      </c>
+      <c r="I25" s="138" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="83">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P25" s="84">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="Q25" s="30">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="S25" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="63">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D25, AF$8:AF$12, 0)</f>
         <v>3</v>
       </c>
-      <c r="Y23" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z23" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA23" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB23" s="186"/>
-      <c r="AC23" s="186"/>
-      <c r="AD23" s="186"/>
-      <c r="AE23" s="186"/>
-      <c r="AF23" s="186"/>
-      <c r="AG23" s="186"/>
-      <c r="AH23" s="186"/>
-      <c r="AI23" s="186"/>
-      <c r="AJ23" s="186"/>
+      <c r="U25" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F25, AG$8:AG$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="V25" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H25, AH$8:AH$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="X25" s="43">
+        <v>80.3</v>
+      </c>
+      <c r="Y25" s="33">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="Z25" s="44">
+        <v>64.900000000000006</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" ht="15" customHeight="1">
-      <c r="A24" s="180"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="176" t="s">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="158"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="14">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E26" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="181">
+        <v>64.2</v>
+      </c>
+      <c r="G26" s="136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="14">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="I26" s="141" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="85">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="P26" s="86">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="Q26" s="87">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="S26" s="127" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" s="63">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D26, AI$8:AI$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="U26" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F26, AJ$8:AJ$12, 0)</f>
         <v>1</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="V26" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H26, AK$8:AK$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="X26" s="43">
+        <v>69.8</v>
+      </c>
+      <c r="Y26" s="33">
+        <v>63.3</v>
+      </c>
+      <c r="Z26" s="44">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="14">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="F24" s="136" t="s">
+      <c r="D27" s="10">
+        <v>80.3</v>
+      </c>
+      <c r="E27" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="177">
+        <v>68.5</v>
+      </c>
+      <c r="G27" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="10">
+        <v>71</v>
+      </c>
+      <c r="I27" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="143">
+        <f xml:space="preserve"> D27 / D30</f>
+        <v>0.93808411214953269</v>
+      </c>
+      <c r="L27" s="143">
+        <f xml:space="preserve"> F27 / F30</f>
+        <v>1.1048387096774193</v>
+      </c>
+      <c r="M27" s="143">
+        <f xml:space="preserve"> H27 / H30</f>
+        <v>1.1234177215189873</v>
+      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="83">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="P27" s="84">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="Q27" s="30">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="S27" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="122">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D27, AC$3:AC$7, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="U27" s="88">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F27, AD$3:AD$7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="V27" s="89">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H27, AE$3:AE$7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="X27" s="43">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="44">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="157"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11">
+        <v>69.8</v>
+      </c>
+      <c r="E28" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="178">
+        <v>69.3</v>
+      </c>
+      <c r="G28" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="11">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I28" s="138" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="143">
+        <f t="shared" ref="K28:K29" si="22" xml:space="preserve"> D28 / D31</f>
+        <v>0.91842105263157892</v>
+      </c>
+      <c r="L28" s="143">
+        <f t="shared" ref="L28:L29" si="23" xml:space="preserve"> F28 / F31</f>
+        <v>1.0727554179566563</v>
+      </c>
+      <c r="M28" s="143">
+        <f t="shared" ref="M28:M29" si="24" xml:space="preserve"> H28 / H31</f>
+        <v>1.0917293233082705</v>
+      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="83">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G24" s="14">
-        <v>64.2</v>
-      </c>
-      <c r="H24" s="136" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="14">
-        <v>66.3</v>
-      </c>
-      <c r="J24" s="141" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="145">
-        <f xml:space="preserve"> AVERAGE(L21:L23)</f>
-        <v>0.91383169963564104</v>
-      </c>
-      <c r="M24" s="145">
-        <f t="shared" ref="M24" si="20" xml:space="preserve"> AVERAGE(M21:M23)</f>
-        <v>1.0924145299145298</v>
-      </c>
-      <c r="N24" s="145">
-        <f t="shared" ref="N24" si="21" xml:space="preserve"> AVERAGE(N21:N23)</f>
-        <v>1.1127280106037145</v>
-      </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="110" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q24" s="111" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R24" s="112" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T24" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="U24" s="129">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E24, AM$8:AM$12, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="V24" s="105">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G24, AN$8:AN$12, 0)</f>
+      <c r="P28" s="84">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q28" s="30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" s="123">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D28, AF$3:AF$7, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="U28" s="48">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F28, AG$3:AG$7, 0)</f>
         <v>2</v>
       </c>
-      <c r="W24" s="106">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I24, AO$8:AO$12, 0)</f>
+      <c r="V28" s="49">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H28, AH$3:AH$7, 0)</f>
         <v>1</v>
       </c>
-      <c r="Y24" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z24" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA24" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB24" s="186"/>
-      <c r="AC24" s="186"/>
-      <c r="AD24" s="186"/>
-      <c r="AE24" s="186"/>
-      <c r="AF24" s="186"/>
-      <c r="AG24" s="186"/>
-      <c r="AH24" s="186"/>
-      <c r="AI24" s="186"/>
-      <c r="AJ24" s="186"/>
+      <c r="X28" s="43">
+        <v>85.6</v>
+      </c>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="44">
+        <v>63.2</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" ht="15" customHeight="1">
-      <c r="A25" s="180"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="12">
-        <v>83.7</v>
-      </c>
-      <c r="F25" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="12">
-        <v>62.4</v>
-      </c>
-      <c r="H25" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="12">
-        <v>61.3</v>
-      </c>
-      <c r="J25" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="84" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q25" s="85" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R25" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T25" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="U25" s="64">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E25, AP$8:AP$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="V25" s="51">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G25, AQ$8:AQ$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="W25" s="52">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I25, AR$8:AR$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="Y25" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z25" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA25" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB25" s="186"/>
-      <c r="AC25" s="186"/>
-      <c r="AD25" s="186"/>
-      <c r="AE25" s="186"/>
-      <c r="AF25" s="186"/>
-      <c r="AG25" s="186"/>
-      <c r="AH25" s="186"/>
-      <c r="AI25" s="186"/>
-      <c r="AJ25" s="186"/>
-    </row>
-    <row r="26" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="181"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="117" t="s">
+    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="157"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="15">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="F26" s="137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="15">
-        <v>64.2</v>
-      </c>
-      <c r="H26" s="137" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="15">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="J26" s="142" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="86" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q26" s="87" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R26" s="88" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T26" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="U26" s="64">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E26, AS$8:AS$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="V26" s="51">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G26, AT$8:AT$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="W26" s="52">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I26, AU$8:AU$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="Y26" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z26" s="34" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA26" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB26" s="186"/>
-      <c r="AC26" s="186"/>
-      <c r="AD26" s="186"/>
-      <c r="AE26" s="186"/>
-      <c r="AF26" s="186"/>
-      <c r="AG26" s="186"/>
-      <c r="AH26" s="186"/>
-      <c r="AI26" s="186"/>
-      <c r="AJ26" s="186"/>
-    </row>
-    <row r="27" spans="1:36" ht="15" customHeight="1">
-      <c r="A27" s="179" t="s">
+      <c r="D29" s="12">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="E29" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="179">
+        <v>71.3</v>
+      </c>
+      <c r="G29" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="158" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="11">
-        <v>80.3</v>
-      </c>
-      <c r="F27" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="189">
-        <v>68.5</v>
-      </c>
-      <c r="H27" s="133" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="11">
-        <v>71</v>
-      </c>
-      <c r="J27" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="144">
-        <f xml:space="preserve"> E27 / E30</f>
-        <v>0.93808411214953269</v>
-      </c>
-      <c r="M27" s="144">
-        <f xml:space="preserve"> G27 / G30</f>
-        <v>1.1048387096774193</v>
-      </c>
-      <c r="N27" s="144">
-        <f xml:space="preserve"> I27 / I30</f>
-        <v>1.1234177215189873</v>
-      </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="84" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q27" s="85" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R27" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T27" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="U27" s="123">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E27, AM$3:AM$7, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="V27" s="89">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G27, AN$3:AN$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="W27" s="90">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I27, AO$3:AO$7, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="Y27" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB27" s="186"/>
-      <c r="AC27" s="186"/>
-      <c r="AD27" s="186"/>
-      <c r="AE27" s="186"/>
-      <c r="AF27" s="186"/>
-      <c r="AG27" s="186"/>
-      <c r="AH27" s="186"/>
-      <c r="AI27" s="186"/>
-      <c r="AJ27" s="186"/>
-    </row>
-    <row r="28" spans="1:36" ht="15" customHeight="1">
-      <c r="A28" s="180"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="12">
-        <v>69.8</v>
-      </c>
-      <c r="F28" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="190">
-        <v>69.3</v>
-      </c>
-      <c r="H28" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="12">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="J28" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="144">
-        <f t="shared" ref="L28:L29" si="22" xml:space="preserve"> E28 / E31</f>
-        <v>0.91842105263157892</v>
-      </c>
-      <c r="M28" s="144">
-        <f t="shared" ref="M28:M29" si="23" xml:space="preserve"> G28 / G31</f>
-        <v>1.0727554179566563</v>
-      </c>
-      <c r="N28" s="144">
-        <f t="shared" ref="N28:N29" si="24" xml:space="preserve"> I28 / I31</f>
-        <v>1.0917293233082705</v>
-      </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="84" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q28" s="85" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R28" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T28" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="U28" s="124">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E28, AP$3:AP$7, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="V28" s="49">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G28, AQ$3:AQ$7, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="W28" s="50">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I28, AR$3:AR$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y28" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB28" s="186"/>
-      <c r="AC28" s="186"/>
-      <c r="AD28" s="186"/>
-      <c r="AE28" s="186"/>
-      <c r="AF28" s="186"/>
-      <c r="AG28" s="186"/>
-      <c r="AH28" s="186"/>
-      <c r="AI28" s="186"/>
-      <c r="AJ28" s="186"/>
-    </row>
-    <row r="29" spans="1:36" ht="15" customHeight="1">
-      <c r="A29" s="180"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="13">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="F29" s="135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="191">
-        <v>71.3</v>
-      </c>
-      <c r="H29" s="135" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="H29" s="12">
         <v>72.2</v>
       </c>
-      <c r="J29" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="144">
+      <c r="I29" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="143">
         <f t="shared" si="22"/>
         <v>0.9066834804539724</v>
       </c>
-      <c r="M29" s="144">
+      <c r="L29" s="143">
         <f t="shared" si="23"/>
         <v>1.1263823064770933</v>
       </c>
-      <c r="N29" s="144">
+      <c r="M29" s="143">
         <f t="shared" si="24"/>
         <v>1.0989345509893456</v>
       </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="107" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q29" s="108" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R29" s="109" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T29" s="131" t="s">
-        <v>34</v>
-      </c>
-      <c r="U29" s="125">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E29, AS$3:AS$7, 0)</f>
+      <c r="N29" s="8"/>
+      <c r="O29" s="106">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="P29" s="107">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q29" s="108">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="S29" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="124">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D29, AI$3:AI$7, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="U29" s="102">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F29, AJ$3:AJ$7, 0)</f>
+        <v>2</v>
+      </c>
       <c r="V29" s="103">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G29, AT$3:AT$7, 0)</f>
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H29, AK$3:AK$7, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="X29" s="43">
+        <v>76</v>
+      </c>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="44">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="157"/>
+      <c r="B30" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="13">
+        <v>85.6</v>
+      </c>
+      <c r="E30" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="180">
+        <v>62</v>
+      </c>
+      <c r="G30" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="13">
+        <v>63.2</v>
+      </c>
+      <c r="I30" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="144">
+        <f xml:space="preserve"> AVERAGE(K27:K29)</f>
+        <v>0.92106288174502804</v>
+      </c>
+      <c r="L30" s="144">
+        <f t="shared" ref="L30" si="25" xml:space="preserve"> AVERAGE(L27:L29)</f>
+        <v>1.1013254780370563</v>
+      </c>
+      <c r="M30" s="144">
+        <f t="shared" ref="M30" si="26" xml:space="preserve"> AVERAGE(M27:M29)</f>
+        <v>1.1046938652722011</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="109">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="P30" s="110">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="Q30" s="111">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="S30" s="131" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" s="128">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D30, AC$8:AC$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="U30" s="104">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F30, AD$8:AD$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="V30" s="105">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H30, AE$8:AE$12, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="X30" s="45">
+        <v>79.3</v>
+      </c>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="47">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="157"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="11">
+        <v>76</v>
+      </c>
+      <c r="E31" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="178">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="G31" s="133" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="11">
+        <v>66.5</v>
+      </c>
+      <c r="I31" s="138" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="83">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="P31" s="84">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q31" s="30">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="S31" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="63">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D31, AF$8:AF$12, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="U31" s="50">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F31, AG$8:AG$12, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="V31" s="51">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H31, AH$8:AH$12, 0)</f>
         <v>2</v>
       </c>
-      <c r="W29" s="104">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I29, AU$3:AU$7, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y29" s="44" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="45" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB29" s="186"/>
-      <c r="AC29" s="186"/>
-      <c r="AD29" s="186"/>
-      <c r="AE29" s="186"/>
-      <c r="AF29" s="186"/>
-      <c r="AG29" s="186"/>
-      <c r="AH29" s="186"/>
-      <c r="AI29" s="186"/>
-      <c r="AJ29" s="186"/>
     </row>
-    <row r="30" spans="1:36" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="180"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="176" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="116" t="s">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="158"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="14">
+        <v>79.3</v>
+      </c>
+      <c r="E32" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="181">
+        <v>63.3</v>
+      </c>
+      <c r="G32" s="136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="14">
+        <v>65.7</v>
+      </c>
+      <c r="I32" s="141" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="85">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P32" s="86">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Q32" s="87">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="S32" s="127" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" s="129">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D32, AI$8:AI$12, 0)</f>
         <v>4</v>
       </c>
-      <c r="E30" s="14">
-        <v>85.6</v>
-      </c>
-      <c r="F30" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="14">
-        <v>62</v>
-      </c>
-      <c r="H30" s="136" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="14">
-        <v>63.2</v>
-      </c>
-      <c r="J30" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="145">
-        <f xml:space="preserve"> AVERAGE(L27:L29)</f>
-        <v>0.92106288174502804</v>
-      </c>
-      <c r="M30" s="145">
-        <f t="shared" ref="M30" si="25" xml:space="preserve"> AVERAGE(M27:M29)</f>
-        <v>1.1013254780370563</v>
-      </c>
-      <c r="N30" s="145">
-        <f t="shared" ref="N30" si="26" xml:space="preserve"> AVERAGE(N27:N29)</f>
-        <v>1.1046938652722011</v>
-      </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="110" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q30" s="111" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R30" s="112" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T30" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="U30" s="129">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E30, AM$8:AM$12, 0)</f>
+      <c r="U32" s="52">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F32, AJ$8:AJ$12, 0)</f>
         <v>3</v>
       </c>
-      <c r="V30" s="105">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G30, AN$8:AN$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="W30" s="106">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I30, AO$8:AO$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="Y30" s="46" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="48" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB30" s="186"/>
-      <c r="AC30" s="186"/>
-      <c r="AD30" s="186"/>
-      <c r="AE30" s="186"/>
-      <c r="AF30" s="186"/>
-      <c r="AG30" s="186"/>
-      <c r="AH30" s="186"/>
-      <c r="AI30" s="186"/>
-      <c r="AJ30" s="186"/>
+      <c r="V32" s="53">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(H32, AK$8:AK$12, 0)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" ht="15" customHeight="1">
-      <c r="A31" s="180"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="12">
-        <v>76</v>
-      </c>
-      <c r="F31" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="12">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="H31" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="12">
-        <v>66.5</v>
-      </c>
-      <c r="J31" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="84" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q31" s="85" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R31" s="31" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T31" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="U31" s="64">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E31, AP$8:AP$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="V31" s="51">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G31, AQ$8:AQ$12, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="W31" s="52">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I31, AR$8:AR$12, 0)</f>
-        <v>2</v>
-      </c>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="64"/>
+      <c r="B33" s="145"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="8"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
     </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="181"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="117" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="15">
-        <v>79.3</v>
-      </c>
-      <c r="F32" s="137" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="15">
-        <v>63.3</v>
-      </c>
-      <c r="H32" s="137" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="15">
-        <v>65.7</v>
-      </c>
-      <c r="J32" s="142" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="143"/>
-      <c r="M32" s="143"/>
-      <c r="N32" s="143"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="86" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q32" s="87" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R32" s="88" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T32" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="U32" s="130">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(E32, AS$8:AS$12, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="V32" s="53">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(G32, AT$8:AT$12, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="W32" s="54">
-        <f xml:space="preserve"> _xlfn.RANK.EQ(I32, AU$8:AU$12, 0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A33" s="65"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="143"/>
-      <c r="M33" s="143"/>
-      <c r="N33" s="143"/>
-      <c r="O33" s="9"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="186"/>
-      <c r="C34" s="187">
+        <v>39</v>
+      </c>
+      <c r="B34" s="151">
         <f xml:space="preserve"> MAX(Test_Score_Train)</f>
         <v>71.5</v>
       </c>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="143"/>
-      <c r="O34" s="9"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="142"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="8"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="187">
-        <f xml:space="preserve"> MAX(G6:G8, G12:G14, G18:G20, G24:G26, G30:G32)</f>
+        <v>39</v>
+      </c>
+      <c r="B35" s="151">
+        <f xml:space="preserve"> MAX(F6:F8, F12:F14, F18:F20, F24:F26, F30:F32)</f>
         <v>65.2</v>
       </c>
-      <c r="D35" s="148"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="143"/>
-      <c r="O35" s="9"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="142"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="8"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A36" s="188"/>
-      <c r="B36" s="146"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="143"/>
-      <c r="M36" s="143"/>
-      <c r="N36" s="143"/>
-      <c r="O36" s="9"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="152"/>
+      <c r="B36" s="145"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="142"/>
+      <c r="M36" s="142"/>
+      <c r="N36" s="8"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A37" s="188"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="143"/>
-      <c r="M37" s="143"/>
-      <c r="N37" s="143"/>
-      <c r="O37" s="9"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="142"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="142"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="3"/>
+      <c r="X37" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="67" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A38" s="188"/>
-      <c r="B38" s="146"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="143"/>
-      <c r="O38" s="9"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="176" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="17">
+        <v>94.4</v>
+      </c>
+      <c r="E38" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="17">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G38" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="17">
+        <v>81.7</v>
+      </c>
+      <c r="I38" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="143">
+        <f xml:space="preserve"> D38 / D41</f>
+        <v>0.96326530612244898</v>
+      </c>
+      <c r="L38" s="143">
+        <f xml:space="preserve"> F38 / F41</f>
+        <v>1.1135303265940901</v>
+      </c>
+      <c r="M38" s="143">
+        <f xml:space="preserve"> H38 / H41</f>
+        <v>1.1490857946554149</v>
+      </c>
+      <c r="N38" s="8"/>
+      <c r="O38" s="34">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D38, X$38:X$43, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="P38" s="35">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F38,_xlfn.ANCHORARRAY( Y$38), 0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q38" s="36">
+        <f xml:space="preserve"> RANK(H38,_xlfn.ANCHORARRAY( Z$38), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="X38" s="68" cm="1">
+        <f t="array" ref="X38:X41" xml:space="preserve"> _xlfn.UNIQUE(D38:D43)</f>
+        <v>94.4</v>
+      </c>
+      <c r="Y38" s="68" cm="1">
+        <f t="array" ref="Y38:Y43" xml:space="preserve"> _xlfn.UNIQUE(F38:F43)</f>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="Z38" s="69" cm="1">
+        <f t="array" ref="Z38:Z43" xml:space="preserve"> _xlfn.UNIQUE(H38:H43)</f>
+        <v>81.7</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A39" s="188"/>
-      <c r="B39" s="146"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="143"/>
-      <c r="M39" s="143"/>
-      <c r="N39" s="143"/>
-      <c r="O39" s="9"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="168"/>
+      <c r="B39" s="171"/>
+      <c r="C39" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="18">
+        <v>100</v>
+      </c>
+      <c r="E39" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="18">
+        <v>73.5</v>
+      </c>
+      <c r="G39" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="18">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="I39" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="143">
+        <f t="shared" ref="K39:K40" si="27" xml:space="preserve"> D39 / D42</f>
+        <v>1</v>
+      </c>
+      <c r="L39" s="143">
+        <f t="shared" ref="L39:L40" si="28" xml:space="preserve"> F39 / F42</f>
+        <v>1.2148760330578512</v>
+      </c>
+      <c r="M39" s="143">
+        <f t="shared" ref="M39:M40" si="29" xml:space="preserve"> H39 / H42</f>
+        <v>1.2090225563909776</v>
+      </c>
+      <c r="N39" s="8"/>
+      <c r="O39" s="37">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D39, X$38:X$43, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P39" s="38">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F39,_xlfn.ANCHORARRAY( Y$38), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="39">
+        <f xml:space="preserve"> RANK(H39,_xlfn.ANCHORARRAY( Z$38), 0)</f>
+        <v>2</v>
+      </c>
+      <c r="X39" s="70">
+        <v>100</v>
+      </c>
+      <c r="Y39" s="70">
+        <v>73.5</v>
+      </c>
+      <c r="Z39" s="71">
+        <v>80.400000000000006</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="143"/>
-      <c r="M40" s="143"/>
-      <c r="N40" s="143"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="3"/>
-      <c r="Y40" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="67" t="s">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="168"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="22">
+        <v>96</v>
+      </c>
+      <c r="E40" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="22">
+        <v>71.2</v>
+      </c>
+      <c r="G40" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="22">
+        <v>78</v>
+      </c>
+      <c r="I40" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="143">
+        <f t="shared" si="27"/>
+        <v>0.96</v>
+      </c>
+      <c r="L40" s="143">
+        <f t="shared" si="28"/>
+        <v>1.2601769911504426</v>
+      </c>
+      <c r="M40" s="143">
+        <f t="shared" si="29"/>
+        <v>1.21875</v>
+      </c>
+      <c r="N40" s="8"/>
+      <c r="O40" s="40">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D40, X$38:X$43, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="P40" s="41">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F40,_xlfn.ANCHORARRAY( Y$38), 0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q40" s="42">
+        <f xml:space="preserve"> RANK(H40,_xlfn.ANCHORARRAY( Z$38), 0)</f>
+        <v>3</v>
+      </c>
+      <c r="X40" s="70">
+        <v>96</v>
+      </c>
+      <c r="Y40" s="70">
+        <v>71.2</v>
+      </c>
+      <c r="Z40" s="71">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="168"/>
+      <c r="B41" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="AA40" s="68" t="s">
-        <v>28</v>
+      <c r="C41" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="23">
+        <v>98</v>
+      </c>
+      <c r="E41" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="23">
+        <v>64.3</v>
+      </c>
+      <c r="G41" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="23">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="I41" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="144">
+        <f xml:space="preserve"> AVERAGE(K38:K40)</f>
+        <v>0.97442176870748298</v>
+      </c>
+      <c r="L41" s="144">
+        <f t="shared" ref="L41" si="30" xml:space="preserve"> AVERAGE(L38:L40)</f>
+        <v>1.1961944502674613</v>
+      </c>
+      <c r="M41" s="144">
+        <f t="shared" ref="M41" si="31" xml:space="preserve"> AVERAGE(M38:M40)</f>
+        <v>1.1922861170154642</v>
+      </c>
+      <c r="N41" s="8"/>
+      <c r="O41" s="19">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D41, X$38:X$43, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="P41" s="20">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F41,_xlfn.ANCHORARRAY( Y$38), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="Q41" s="21">
+        <f xml:space="preserve"> RANK(H41,_xlfn.ANCHORARRAY( Z$38), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="X41" s="70">
+        <v>98</v>
+      </c>
+      <c r="Y41" s="70">
+        <v>64.3</v>
+      </c>
+      <c r="Z41" s="71">
+        <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15" customHeight="1">
-      <c r="A41" s="161" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="164" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="18">
-        <v>94.4</v>
-      </c>
-      <c r="F41" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="18">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="H41" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="18">
-        <v>81.7</v>
-      </c>
-      <c r="J41" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="144">
-        <f xml:space="preserve"> E41 / E44</f>
-        <v>0.96326530612244898</v>
-      </c>
-      <c r="M41" s="144">
-        <f xml:space="preserve"> G41 / G44</f>
-        <v>1.1135303265940901</v>
-      </c>
-      <c r="N41" s="144">
-        <f xml:space="preserve"> I41 / I44</f>
-        <v>1.1490857946554149</v>
-      </c>
-      <c r="O41" s="9"/>
-      <c r="P41" s="35" t="e">
-        <f t="shared" ref="P41:P46" ca="1" si="27" xml:space="preserve"> _xlfn.RANK.EQ(E41, Y$41:Y$46, 0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q41" s="36" t="e">
-        <f t="shared" ref="Q41:Q46" ca="1" si="28" xml:space="preserve"> _xlfn.RANK.EQ(G41,_xlfn.ANCHORARRAY( Z$41), 0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R41" s="37" t="e">
-        <f t="shared" ref="R41:R46" ca="1" si="29" xml:space="preserve"> RANK(I41,_xlfn.ANCHORARRAY( AA$41), 0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y41" s="69" t="e" cm="1">
-        <f t="array" aca="1" ref="Y41:Y44" ca="1" xml:space="preserve"> _xlfn.UNIQUE(E41:E46)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z41" s="69" t="e" cm="1">
-        <f t="array" aca="1" ref="Z41:Z46" ca="1" xml:space="preserve"> _xlfn.UNIQUE(G41:G46)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA41" s="70" t="e" cm="1">
-        <f t="array" aca="1" ref="AA41:AA46" ca="1" xml:space="preserve"> _xlfn.UNIQUE(I41:I46)</f>
-        <v>#NAME?</v>
+    <row r="42" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="168"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="18">
+        <v>100</v>
+      </c>
+      <c r="E42" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="18">
+        <v>60.5</v>
+      </c>
+      <c r="G42" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="18">
+        <v>66.5</v>
+      </c>
+      <c r="I42" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="19">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D42, X$38:X$43, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P42" s="20">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F42,_xlfn.ANCHORARRAY( Y$38), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="Q42" s="21">
+        <f xml:space="preserve"> RANK(H42,_xlfn.ANCHORARRAY( Z$38), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70">
+        <v>60.5</v>
+      </c>
+      <c r="Z42" s="71">
+        <v>66.5</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15" customHeight="1">
-      <c r="A42" s="162"/>
-      <c r="B42" s="165"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="19">
+    <row r="43" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="169"/>
+      <c r="B43" s="175"/>
+      <c r="C43" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="24">
         <v>100</v>
       </c>
-      <c r="F42" s="99" t="s">
+      <c r="E43" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="24">
+        <v>56.5</v>
+      </c>
+      <c r="G43" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="19">
-        <v>73.5</v>
-      </c>
-      <c r="H42" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="19">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="J42" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="144">
-        <f t="shared" ref="L42:L43" si="30" xml:space="preserve"> E42 / E45</f>
+      <c r="H43" s="24">
+        <v>64</v>
+      </c>
+      <c r="I43" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="142"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="25">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(D43, X$38:X$43, 0)</f>
         <v>1</v>
       </c>
-      <c r="M42" s="144">
-        <f t="shared" ref="M42:M43" si="31" xml:space="preserve"> G42 / G45</f>
-        <v>1.2148760330578512</v>
-      </c>
-      <c r="N42" s="144">
-        <f t="shared" ref="N42:N43" si="32" xml:space="preserve"> I42 / I45</f>
-        <v>1.2090225563909776</v>
-      </c>
-      <c r="O42" s="9"/>
-      <c r="P42" s="38" t="e">
-        <f t="shared" ca="1" si="27"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q42" s="39" t="e">
-        <f t="shared" ca="1" si="28"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R42" s="40" t="e">
-        <f t="shared" ca="1" si="29"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y42" s="71" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z42" s="71" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA42" s="72" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="P43" s="26">
+        <f xml:space="preserve"> _xlfn.RANK.EQ(F43,_xlfn.ANCHORARRAY( Y$38), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="Q43" s="27">
+        <f xml:space="preserve"> RANK(H43,_xlfn.ANCHORARRAY( Z$38), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="X43" s="72"/>
+      <c r="Y43" s="72">
+        <v>56.5</v>
+      </c>
+      <c r="Z43" s="73">
+        <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15" customHeight="1">
-      <c r="A43" s="162"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="23">
-        <v>96</v>
-      </c>
-      <c r="F43" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="23">
-        <v>71.2</v>
-      </c>
-      <c r="H43" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="23">
-        <v>78</v>
-      </c>
-      <c r="J43" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="144">
-        <f t="shared" si="30"/>
-        <v>0.96</v>
-      </c>
-      <c r="M43" s="144">
-        <f t="shared" si="31"/>
-        <v>1.2601769911504426</v>
-      </c>
-      <c r="N43" s="144">
-        <f t="shared" si="32"/>
-        <v>1.21875</v>
-      </c>
-      <c r="O43" s="9"/>
-      <c r="P43" s="41" t="e">
-        <f t="shared" ca="1" si="27"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q43" s="42" t="e">
-        <f t="shared" ca="1" si="28"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R43" s="43" t="e">
-        <f t="shared" ca="1" si="29"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y43" s="71" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z43" s="71" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA43" s="72" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="15" customHeight="1">
-      <c r="A44" s="162"/>
-      <c r="B44" s="165"/>
-      <c r="C44" s="170" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="121" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="24">
-        <v>98</v>
-      </c>
-      <c r="F44" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="24">
-        <v>64.3</v>
-      </c>
-      <c r="H44" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="24">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="J44" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="145">
-        <f xml:space="preserve"> AVERAGE(L41:L43)</f>
-        <v>0.97442176870748298</v>
-      </c>
-      <c r="M44" s="145">
-        <f t="shared" ref="M44" si="33" xml:space="preserve"> AVERAGE(M41:M43)</f>
-        <v>1.1961944502674613</v>
-      </c>
-      <c r="N44" s="145">
-        <f t="shared" ref="N44" si="34" xml:space="preserve"> AVERAGE(N41:N43)</f>
-        <v>1.1922861170154642</v>
-      </c>
-      <c r="O44" s="9"/>
-      <c r="P44" s="20" t="e">
-        <f t="shared" ca="1" si="27"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q44" s="21" t="e">
-        <f t="shared" ca="1" si="28"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R44" s="22" t="e">
-        <f t="shared" ca="1" si="29"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y44" s="71" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Z44" s="71" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA44" s="72" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="15" customHeight="1">
-      <c r="A45" s="162"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="19">
-        <v>100</v>
-      </c>
-      <c r="F45" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="19">
-        <v>60.5</v>
-      </c>
-      <c r="H45" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="19">
-        <v>66.5</v>
-      </c>
-      <c r="J45" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="143"/>
-      <c r="M45" s="143"/>
-      <c r="N45" s="143"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="20" t="e">
-        <f t="shared" ca="1" si="27"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q45" s="21" t="e">
-        <f t="shared" ca="1" si="28"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R45" s="22" t="e">
-        <f t="shared" ca="1" si="29"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA45" s="72" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="163"/>
-      <c r="B46" s="166"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="122" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="25">
-        <v>100</v>
-      </c>
-      <c r="F46" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="25">
-        <v>56.5</v>
-      </c>
-      <c r="H46" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="25">
-        <v>64</v>
-      </c>
-      <c r="J46" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="143"/>
-      <c r="M46" s="143"/>
-      <c r="N46" s="143"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="26" t="e">
-        <f t="shared" ca="1" si="27"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q46" s="27" t="e">
-        <f t="shared" ca="1" si="28"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="R46" s="28" t="e">
-        <f t="shared" ca="1" si="29"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y46" s="73"/>
-      <c r="Z46" s="73" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AA46" s="74" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1">
-      <c r="D47"/>
-      <c r="F47"/>
-      <c r="H47"/>
+    <row r="44" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47"/>
+      <c r="E47"/>
+      <c r="G47"/>
+      <c r="I47"/>
       <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47" s="143"/>
-      <c r="M47" s="143"/>
-      <c r="N47" s="143"/>
-      <c r="O47"/>
+      <c r="K47" s="142"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="142"/>
+      <c r="N47"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="AL3:AL7"/>
-    <mergeCell ref="AL8:AL12"/>
+  <mergeCells count="20">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="AB3:AB7"/>
+    <mergeCell ref="AB8:AB12"/>
     <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
